--- a/AAII_Financials/Quarterly/AEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>AEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43862</v>
+      </c>
+      <c r="E7" s="2">
         <v>43771</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43680</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43589</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43498</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43407</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43225</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43134</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43036</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42945</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42854</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42763</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1314600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1066400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1040900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>886300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1244200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1003700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>964900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>823000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1228700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>960400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>844600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>761800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1097200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>940600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>906900</v>
+      </c>
+      <c r="E9" s="3">
         <v>659400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>658300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>561400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>813600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>604200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>611800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>518500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>803600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>585500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>551900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>484000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>708700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>562800</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>407700</v>
+      </c>
+      <c r="E10" s="3">
         <v>407100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>382600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>324900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>430600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>399500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>353100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>304500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>425100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>374900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>292700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>277800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>388500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>377800</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,23 +986,26 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>76200</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>2700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1500</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -993,72 +1013,78 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>19100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>21200</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E15" s="3">
         <v>45000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>44900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>44800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>41200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>42400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>42700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>41900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>43500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>43100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>40300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>40400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>39400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1314200</v>
+      </c>
+      <c r="E17" s="3">
         <v>963300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>959000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>838400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1142800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>895100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>888500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>772300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1111400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>849500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>815000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>724900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1011400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>822300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>400</v>
+      </c>
+      <c r="E18" s="3">
         <v>103100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>81900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>47900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>101400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>108600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>76400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>50700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>117300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>110900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>29600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>36900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>85800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1211,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E20" s="3">
         <v>2600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-13200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E21" s="3">
         <v>151200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>131300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>97400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>142500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>158900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>120500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>93700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>164100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>141400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>73000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>78200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>127300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>158900</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1350,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E23" s="3">
         <v>105700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>85900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>52000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>103700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>113000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>77300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>51200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>120000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>97700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>32200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>37400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>87300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E24" s="3">
         <v>24900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>20900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>11300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>27500</v>
       </c>
       <c r="H24" s="3">
         <v>27500</v>
       </c>
       <c r="I24" s="3">
+        <v>27500</v>
+      </c>
+      <c r="J24" s="3">
         <v>16900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>11300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>38100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>33900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>12100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>32600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>43100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E26" s="3">
         <v>80800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>65000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>40800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>76200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>85500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>60300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>39900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>81900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>63700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>21200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>25200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>54600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E27" s="3">
         <v>80800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>65000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>40800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>76200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>85500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>60300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>39900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>81900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>63700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>21200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>25200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>54600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1600,11 +1661,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>12100</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1612,14 +1673,17 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>13200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E33" s="3">
         <v>80800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>65000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>40800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>76200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>85500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>60300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>39900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>94000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>63700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>21200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>25200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>54600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E35" s="3">
         <v>80800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>65000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>40800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>76200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>85500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>60300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>39900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>94000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>63700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>21200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>25200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>54600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43862</v>
+      </c>
+      <c r="E38" s="2">
         <v>43771</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43680</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43589</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43498</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43407</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43225</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43134</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43036</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42945</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42854</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42763</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,272 +2053,291 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>126100</v>
+      </c>
+      <c r="E41" s="3">
         <v>134600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>144200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>91900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>108200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>156300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>184300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>209900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>184100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>185500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>162800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>143900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>265300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>209600</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>290800</v>
+      </c>
+      <c r="E42" s="3">
         <v>129900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>172900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>257800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>317200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>203500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>179000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>99800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>229500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>72000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>29800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>81300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>113300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>119100</v>
+      </c>
+      <c r="E43" s="3">
         <v>112300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>98600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>73800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>93500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>84100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>74200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>72800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>78300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>77100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>80700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>79400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>86600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>446300</v>
+      </c>
+      <c r="E44" s="3">
         <v>647300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>534800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>456200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>424400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>591700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>466100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>404300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>398200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>534000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>433500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>364300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>358400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>492600</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>65700</v>
+      </c>
+      <c r="E45" s="3">
         <v>54400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>69500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>70900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>102900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>88000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>93500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>87800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>78400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>61600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>110500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>94800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>77500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>77800</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1047900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1078600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1020100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>950600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1046300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1123500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>997100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>874600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>968500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>930200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>817200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>763700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>901200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>936800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,96 +2380,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2154000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2250500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2216600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2188900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>742100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>735700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>732400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>732200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>724200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>726200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>719100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>710500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>707800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>708500</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E49" s="3">
         <v>55500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>56300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>57200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>58200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>59100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>60000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>60900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>61700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>62000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>62600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>63200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>64300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>73700</v>
+      </c>
+      <c r="E52" s="3">
         <v>67700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>66200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>58600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>56800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>63200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>61300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>63200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>61800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>83400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>87400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>95800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>109400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3328700</v>
+      </c>
+      <c r="E54" s="3">
         <v>3452300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3359200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3255400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1903400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1981500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1850700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1730900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1816300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1801800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1686300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1633200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1782700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1822500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2749,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>285700</v>
+      </c>
+      <c r="E57" s="3">
         <v>366700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>317000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>231800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>240700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>343400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>264200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>207800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>236700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>330700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>275500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>208900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>246200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>314100</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,96 +2841,105 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>466000</v>
+      </c>
+      <c r="E59" s="3">
         <v>443500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>446700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>418000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>302000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>263800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>243800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>227000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>248500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>222100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>196500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>211700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>247600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>248800</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>751800</v>
+      </c>
+      <c r="E60" s="3">
         <v>810200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>763600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>649800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>542600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>607100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>508000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>434800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>485200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>552800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>472000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>420600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>493800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>562900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,52 +2982,58 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1329100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1381700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1366900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1363800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>73200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>78900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>82200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>88700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>84300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>85700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>90000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>94700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>84300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>87700</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2080800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2191900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2130600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2013600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>615800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>686100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>590200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>523500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>569500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>638600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>562000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>515300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>578100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>650600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2108300</v>
+      </c>
+      <c r="E72" s="3">
         <v>2127300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2070100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2028600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2054700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2002700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1941500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1904200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1883600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1812800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1772200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1774300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1775800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1744200</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1247900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1260400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1228600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1241800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1287600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1295400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1260600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1207400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1246800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1163200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1124300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1117900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1204600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1172000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43862</v>
+      </c>
+      <c r="E80" s="2">
         <v>43771</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43680</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43589</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43498</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43407</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43225</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43134</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43036</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42945</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42854</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42763</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E81" s="3">
         <v>80800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>65000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>40800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>76200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>85500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>60300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>39900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>94000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>63700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>21200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>25200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>54600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E83" s="3">
         <v>45600</v>
-      </c>
-      <c r="E83" s="3">
-        <v>45400</v>
       </c>
       <c r="F83" s="3">
         <v>45400</v>
       </c>
       <c r="G83" s="3">
+        <v>45400</v>
+      </c>
+      <c r="H83" s="3">
         <v>38800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>46000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>43300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>42500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>44100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>43700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>40800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>40900</v>
-      </c>
-      <c r="O83" s="3">
-        <v>40000</v>
       </c>
       <c r="P83" s="3">
         <v>40000</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>237200</v>
+      </c>
+      <c r="E89" s="3">
         <v>60600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>109900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>213100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>91200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>124400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>28000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>206300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>134900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>42500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>10700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>162700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>101500</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-60500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-58100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-55200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-36600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-45100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-42600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-54500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-46900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-34500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-48400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-46400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-40100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-54200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-47300</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-58200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-61200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>10400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-58500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-82600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-74600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-67200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-36600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-48900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-46500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-40100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-54200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-47300</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4157,28 +4391,28 @@
         <v>-23000</v>
       </c>
       <c r="E96" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-23200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-23600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-25800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-22700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-24400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-24200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-22200</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-22100</v>
       </c>
       <c r="M96" s="3">
         <v>-22100</v>
@@ -4187,13 +4421,16 @@
         <v>-22100</v>
       </c>
       <c r="O96" s="3">
-        <v>-22700</v>
+        <v>-22100</v>
       </c>
       <c r="P96" s="3">
         <v>-22700</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>-22700</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-55400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-86100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-46600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-102400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-49300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-16600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-84300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-13900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-23900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-27300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-123600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-21600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>147400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-52700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-37500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-28700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>53500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-43500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>33600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-123900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>156100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>65000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-32600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-153400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>86900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>43700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>AEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43953</v>
+      </c>
+      <c r="E7" s="2">
         <v>43862</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43771</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43680</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43589</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43498</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43407</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43225</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43134</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43036</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42945</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42854</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42763</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>551700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1314600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1066400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1040900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>886300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1244200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1003700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>964900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>823000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1228700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>960400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>844600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>761800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1097200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>940600</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>523400</v>
+      </c>
+      <c r="E9" s="3">
         <v>906900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>659400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>658300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>561400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>813600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>604200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>611800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>518500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>803600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>585500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>551900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>484000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>708700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>562800</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E10" s="3">
         <v>407700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>407100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>382600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>324900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>430600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>399500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>353100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>304500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>425100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>374900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>292700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>277800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>388500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>377800</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,26 +1006,29 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>155600</v>
+      </c>
+      <c r="E14" s="3">
         <v>76200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>2700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1500</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -1016,75 +1036,81 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>19100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>21200</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E15" s="3">
         <v>44400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>45000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>44900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>44800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>41200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>42400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>42700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>41900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>43500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>43100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>40300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>40400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>39400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>909900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1314200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>963300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>959000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>838400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1142800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>895100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>888500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>772300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1111400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>849500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>815000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>724900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1011400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>822300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-358200</v>
+      </c>
+      <c r="E18" s="3">
         <v>400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>103100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>81900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>47900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>101400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>108600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>76400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>50700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>117300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>110900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>29600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>36900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>85800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1245,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E20" s="3">
         <v>1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-13200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-318000</v>
+      </c>
+      <c r="E21" s="3">
         <v>46700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>151200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>131300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>97400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>142500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>158900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>120500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>93700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>164100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>141400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>73000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>78200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>127300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>158900</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,102 +1393,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-361400</v>
+      </c>
+      <c r="E23" s="3">
         <v>1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>105700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>85900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>52000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>103700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>113000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>77300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>51200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>120000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>97700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>32200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>37400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>87300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-104200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>24900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>20900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>11300</v>
-      </c>
-      <c r="H24" s="3">
-        <v>27500</v>
       </c>
       <c r="I24" s="3">
         <v>27500</v>
       </c>
       <c r="J24" s="3">
+        <v>27500</v>
+      </c>
+      <c r="K24" s="3">
         <v>16900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>38100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>33900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>10900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>12100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>32600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>43100</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-257200</v>
+      </c>
+      <c r="E26" s="3">
         <v>4800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>80800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>65000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>40800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>76200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>85500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>60300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>39900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>81900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>63700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>21200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>25200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>54600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-257200</v>
+      </c>
+      <c r="E27" s="3">
         <v>4800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>80800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>65000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>40800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>76200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>85500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>60300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>39900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>81900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>63700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>21200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>25200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>54600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1664,11 +1725,11 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>12100</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1676,14 +1737,17 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>13200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-257200</v>
+      </c>
+      <c r="E33" s="3">
         <v>4800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>80800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>65000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>40800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>76200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>85500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>60300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>39900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>94000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>63700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>21200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>25200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>54600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-257200</v>
+      </c>
+      <c r="E35" s="3">
         <v>4800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>80800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>65000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>40800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>76200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>85500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>60300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>39900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>94000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>63700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>21200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>25200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>54600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43953</v>
+      </c>
+      <c r="E38" s="2">
         <v>43862</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43771</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43680</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43589</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43498</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43407</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43225</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43134</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43036</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42945</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42854</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42763</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,290 +2140,309 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>499300</v>
+      </c>
+      <c r="E41" s="3">
         <v>126100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>134600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>144200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>91900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>108200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>156300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>184300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>209900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>184100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>185500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>162800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>143900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>265300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>209600</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>386500</v>
+      </c>
+      <c r="E42" s="3">
         <v>290800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>129900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>172900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>257800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>317200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>203500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>179000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>99800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>229500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>72000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>29800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>81300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>113300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>106800</v>
+      </c>
+      <c r="E43" s="3">
         <v>119100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>112300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>98600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>73800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>93500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>84100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>74200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>72800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>78300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>77100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>80700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>79400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>86600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>421700</v>
+      </c>
+      <c r="E44" s="3">
         <v>446300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>647300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>534800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>456200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>424400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>591700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>466100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>404300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>398200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>534000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>433500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>364300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>358400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>492600</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>144700</v>
+      </c>
+      <c r="E45" s="3">
         <v>65700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>54400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>69500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>70900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>102900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>88000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>93500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>87800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>78400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>61600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>110500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>94800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>77500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>77800</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1558900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1047900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1078600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1020100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>950600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1046300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1123500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>997100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>874600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>968500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>930200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>817200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>763700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>901200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>936800</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,102 +2488,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1960000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2154000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2250500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2216600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2188900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>742100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>735700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>732400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>732200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>724200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>726200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>719100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>710500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>707800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>708500</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E49" s="3">
         <v>53000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>55500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>56300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>57200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>58200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>59100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>60000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>60900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>61700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>62000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>62600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>63200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>64300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>59200</v>
+      </c>
+      <c r="E52" s="3">
         <v>73700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>67700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>66200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>58600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>56800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>63200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>61300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>63200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>61800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>83400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>87400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>95800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>109400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3630100</v>
+      </c>
+      <c r="E54" s="3">
         <v>3328700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3452300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3359200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3255400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1903400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1981500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1850700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1730900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1816300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1801800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1686300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1633200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1782700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1822500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +2880,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>177100</v>
+      </c>
+      <c r="E57" s="3">
         <v>285700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>366700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>317000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>231800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>240700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>343400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>264200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>207800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>236700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>330700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>275500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>208900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>246200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>314100</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,107 +2978,116 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>485100</v>
+      </c>
+      <c r="E59" s="3">
         <v>466000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>443500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>446700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>418000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>302000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>263800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>243800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>227000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>248500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>222100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>196500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>211700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>247600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>248800</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>662200</v>
+      </c>
+      <c r="E60" s="3">
         <v>751800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>810200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>763600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>649800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>542600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>607100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>508000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>434800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>485200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>552800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>472000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>420600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>493800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>562900</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>643000</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2985,55 +3128,61 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1327900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1329100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1381700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1366900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1363800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>73200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>78900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>82200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>88700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>84300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>85700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>90000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>94700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>84300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>87700</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2633100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2080800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2191900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2130600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2013600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>615800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>686100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>590200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>523500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>569500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>638600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>562000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>515300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>578100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>650600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1826400</v>
+      </c>
+      <c r="E72" s="3">
         <v>2108300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2127300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2070100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2028600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2054700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2002700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1941500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1904200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1883600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1812800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1772200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1774300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1775800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1744200</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>997000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1247900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1260400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1228600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1241800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1287600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1295400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1260600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1207400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1246800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1163200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1124300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1117900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1204600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1172000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43953</v>
+      </c>
+      <c r="E80" s="2">
         <v>43862</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43771</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43680</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43589</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43498</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43407</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43225</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43134</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43036</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42945</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42854</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42763</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-257200</v>
+      </c>
+      <c r="E81" s="3">
         <v>4800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>80800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>65000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>40800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>76200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>85500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>60300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>39900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>94000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>63700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>21200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>25200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>54600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4025,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E83" s="3">
         <v>45000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>45600</v>
-      </c>
-      <c r="F83" s="3">
-        <v>45400</v>
       </c>
       <c r="G83" s="3">
         <v>45400</v>
       </c>
       <c r="H83" s="3">
+        <v>45400</v>
+      </c>
+      <c r="I83" s="3">
         <v>38800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>46000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>43300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>42500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>44100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>43700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>40800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>40900</v>
-      </c>
-      <c r="P83" s="3">
-        <v>40000</v>
       </c>
       <c r="Q83" s="3">
         <v>40000</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-209900</v>
+      </c>
+      <c r="E89" s="3">
         <v>237200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>60600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>109900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>213100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>91200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>124400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>28000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>206300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>134900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>42500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>10700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>162700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>101500</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-60500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-58100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-55200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-36600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-45100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-42600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-54500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-46900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-34500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-48400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-46400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-40100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-54200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-47300</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-65800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-58200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-61200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>10400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-58500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-82600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-74600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-67200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-36600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-48900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-46500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-40100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-54200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-47300</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,40 +4615,41 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-23000</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>-23000</v>
       </c>
       <c r="F96" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-23200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-23600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-25800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-22700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-24400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-24200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-22200</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-22100</v>
       </c>
       <c r="N96" s="3">
         <v>-22100</v>
@@ -4424,13 +4658,16 @@
         <v>-22100</v>
       </c>
       <c r="P96" s="3">
-        <v>-22700</v>
+        <v>-22100</v>
       </c>
       <c r="Q96" s="3">
         <v>-22700</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>-22700</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4813,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>714600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-23100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-55400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-86100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-46600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-102400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-49300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-16600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-84300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-13900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-23900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-27300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-123600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-21600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>493800</v>
+      </c>
+      <c r="E102" s="3">
         <v>147400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-52700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-37500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-28700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>53500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-43500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>33600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-123900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>156100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>65000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-32600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-153400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>86900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>43700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>AEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44044</v>
+      </c>
+      <c r="E7" s="2">
         <v>43953</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43862</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43771</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43680</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43589</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43498</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43407</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43225</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43134</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43036</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42945</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42854</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42763</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>883500</v>
+      </c>
+      <c r="E8" s="3">
         <v>551700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1314600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1066400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1040900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>886300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1244200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1003700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>964900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>823000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1228700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>960400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>844600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>761800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1097200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>940600</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>618300</v>
+      </c>
+      <c r="E9" s="3">
         <v>523400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>906900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>659400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>658300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>561400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>813600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>604200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>611800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>518500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>803600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>585500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>551900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>484000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>708700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>562800</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>265200</v>
+      </c>
+      <c r="E10" s="3">
         <v>28300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>407700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>407100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>382600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>324900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>430600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>399500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>353100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>304500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>425100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>374900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>292700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>277800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>388500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>377800</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,29 +1026,32 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E14" s="3">
         <v>155600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>76200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>2700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1500</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -1039,78 +1059,84 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>1600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>19100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>21200</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E15" s="3">
         <v>42700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>44400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>45000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>44900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>44800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>41200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>42400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>42700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>41900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>43500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>43100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>40300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>40400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>39400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>895700</v>
+      </c>
+      <c r="E17" s="3">
         <v>909900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1314200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>963300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>959000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>838400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1142800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>895100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>888500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>772300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1111400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>849500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>815000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>724900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1011400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>822300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-358200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>103100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>81900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>47900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>101400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>108600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>76400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>50700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>117300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>110900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>29600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>36900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>85800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,108 +1279,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-13200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-318000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>46700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>151200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>131300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>97400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>142500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>158900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>120500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>93700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>164100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>141400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>73000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>78200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>127300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>158900</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,108 +1436,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-361400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>105700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>85900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>52000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>103700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>113000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>77300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>51200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>120000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>97700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>32200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>37400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>87300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-104200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-3100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>24900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>20900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>11300</v>
-      </c>
-      <c r="I24" s="3">
-        <v>27500</v>
       </c>
       <c r="J24" s="3">
         <v>27500</v>
       </c>
       <c r="K24" s="3">
+        <v>27500</v>
+      </c>
+      <c r="L24" s="3">
         <v>16900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>38100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>33900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>10900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>12100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>32600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>43100</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-257200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>80800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>65000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>40800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>76200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>85500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>60300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>39900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>81900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>63700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>21200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>25200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>54600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-257200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>80800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>65000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>40800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>76200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>85500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>60300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>39900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>81900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>63700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>21200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>25200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>54600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1728,11 +1789,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>12100</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1740,14 +1801,17 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E32" s="3">
         <v>3100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>13200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-257200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>80800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>65000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>40800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>76200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>85500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>60300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>39900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>94000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>63700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>21200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>25200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>54600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-257200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>80800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>65000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>40800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>76200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>85500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>60300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>39900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>94000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>63700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>21200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>25200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>54600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44044</v>
+      </c>
+      <c r="E38" s="2">
         <v>43953</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43862</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43771</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43680</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43589</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43498</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43407</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43225</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43134</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43036</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42945</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42854</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42763</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,308 +2227,327 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>404700</v>
+      </c>
+      <c r="E41" s="3">
         <v>499300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>126100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>134600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>144200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>91900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>108200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>156300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>184300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>209900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>184100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>185500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>162800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>143900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>265300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>209600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>494000</v>
+      </c>
+      <c r="E42" s="3">
         <v>386500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>290800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>129900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>172900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>257800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>317200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>203500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>179000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>99800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>229500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>72000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>29800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>81300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>113300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>107200</v>
+      </c>
+      <c r="E43" s="3">
         <v>106800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>119100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>112300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>98600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>73800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>93500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>84100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>74200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>72800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>78300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>77100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>80700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>79400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>86600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>421200</v>
+      </c>
+      <c r="E44" s="3">
         <v>421700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>446300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>647300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>534800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>456200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>424400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>591700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>466100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>404300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>398200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>534000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>433500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>364300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>358400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>492600</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>155100</v>
+      </c>
+      <c r="E45" s="3">
         <v>144700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>65700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>54400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>69500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>70900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>102900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>88000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>93500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>87800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>78400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>61600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>110500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>94800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>77500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>77800</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1582400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1558900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1047900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1078600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1020100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>950600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1046300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1123500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>997100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>874600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>968500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>930200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>817200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>763700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>901200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>936800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,108 +2596,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1930800</v>
+      </c>
+      <c r="E48" s="3">
         <v>1960000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2154000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2250500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2216600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2188900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>742100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>735700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>732400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>732200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>724200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>726200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>719100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>710500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>707800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>708500</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E49" s="3">
         <v>52000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>53000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>55500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>56300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>57200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>58200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>59100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>60000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>60900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>61700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>62000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>62600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>63200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>64300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>63300</v>
+      </c>
+      <c r="E52" s="3">
         <v>59200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>73700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>67700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>66200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>58600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>56800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>63200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>61300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>63200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>61800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>83400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>87400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>95800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>109400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3628000</v>
+      </c>
+      <c r="E54" s="3">
         <v>3630100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3328700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3452300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3359200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3255400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1903400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1981500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1850700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1730900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1816300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1801800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1686300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1633200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1782700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1822500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,58 +3011,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>295300</v>
+      </c>
+      <c r="E57" s="3">
         <v>177100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>285700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>366700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>317000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>231800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>240700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>343400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>264200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>207800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>236700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>330700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>275500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>208900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>246200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>314100</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,117 +3115,126 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>545100</v>
+      </c>
+      <c r="E59" s="3">
         <v>485100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>466000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>443500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>446700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>418000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>302000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>263800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>243800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>227000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>248500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>222100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>196500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>211700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>247600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>248800</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>840400</v>
+      </c>
+      <c r="E60" s="3">
         <v>662200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>751800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>810200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>763600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>649800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>542600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>607100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>508000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>434800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>485200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>552800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>472000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>420600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>493800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>562900</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>517000</v>
+      </c>
+      <c r="E61" s="3">
         <v>643000</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -3131,58 +3274,64 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1272700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1327900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1329100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1381700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1366900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1363800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>73200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>78900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>82200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>88700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>84300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>85700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>90000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>94700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>84300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>87700</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2630100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2633100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2080800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2191900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2130600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2013600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>615800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>686100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>590200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>523500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>569500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>638600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>562000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>515300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>578100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>650600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1807700</v>
+      </c>
+      <c r="E72" s="3">
         <v>1826400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2108300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2127300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2070100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2028600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2054700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2002700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1941500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1904200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1883600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1812800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1772200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1774300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1775800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1744200</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>997900</v>
+      </c>
+      <c r="E76" s="3">
         <v>997000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1247900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1260400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1228600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1241800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1287600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1295400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1260600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1207400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1246800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1163200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1124300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1117900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1204600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1172000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44044</v>
+      </c>
+      <c r="E80" s="2">
         <v>43953</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43862</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43771</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43680</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43589</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43498</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43407</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43225</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43134</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43036</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42945</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42854</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42763</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-257200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>80800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>65000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>40800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>76200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>85500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>60300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>39900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>94000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>63700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>21200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>25200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>54600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4224,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E83" s="3">
         <v>43400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>45000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>45600</v>
-      </c>
-      <c r="G83" s="3">
-        <v>45400</v>
       </c>
       <c r="H83" s="3">
         <v>45400</v>
       </c>
       <c r="I83" s="3">
+        <v>45400</v>
+      </c>
+      <c r="J83" s="3">
         <v>38800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>46000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>43300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>42500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>44100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>43700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>40800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>40900</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>40000</v>
       </c>
       <c r="R83" s="3">
         <v>40000</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>173500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-209900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>237200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>60600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>109900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>213100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>91200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>124400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>28000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>206300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>134900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>42500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>10700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>162700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>101500</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-33900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-60500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-58100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-55200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-36600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-45100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-42600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-54500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-46900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-34500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-48400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-46400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-40100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-54200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-47300</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-65800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-58200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-61200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>10400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-58500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-82600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-74600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-67200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-36600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-48900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-46500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-40100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-54200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-47300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4625,34 +4859,34 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-23000</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>-23000</v>
       </c>
       <c r="G96" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-23200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-23600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-25800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-22700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-24400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-24200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-22200</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-22100</v>
       </c>
       <c r="O96" s="3">
         <v>-22100</v>
@@ -4661,13 +4895,16 @@
         <v>-22100</v>
       </c>
       <c r="Q96" s="3">
-        <v>-22700</v>
+        <v>-22100</v>
       </c>
       <c r="R96" s="3">
         <v>-22700</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>-22700</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5059,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-134400</v>
+      </c>
+      <c r="E100" s="3">
         <v>714600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-23100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-55400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-86100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-46600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-102400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-49300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-16600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-84300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-13900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-23900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-27300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-123600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-21600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E102" s="3">
         <v>493800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>147400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-52700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-37500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-28700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>53500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-43500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>33600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-123900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>156100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>65000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-32600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-153400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>86900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>43700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>AEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,271 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F7" s="2">
         <v>44044</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43953</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43862</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43771</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43680</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43589</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43498</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43407</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43225</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43134</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43036</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42945</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42854</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42763</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1292300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1031600</v>
+      </c>
+      <c r="F8" s="3">
         <v>883500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>551700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1314600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1066400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1040900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>886300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1244200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1003700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>964900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>823000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1228700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>960400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>844600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>761800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1097200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>940600</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>852400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>616800</v>
+      </c>
+      <c r="F9" s="3">
         <v>618300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>523400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>906900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>659400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>658300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>561400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>813600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>604200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>611800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>518500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>803600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>585500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>551900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>484000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>708700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>562800</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>439900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>414800</v>
+      </c>
+      <c r="F10" s="3">
         <v>265200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>28300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>407700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>407100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>382600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>324900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>430600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>399500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>353100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>304500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>425100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>374900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>292700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>277800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>388500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>377800</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +949,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +1004,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,114 +1063,132 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>102600</v>
+      </c>
+      <c r="E14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F14" s="3">
         <v>14600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>155600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>76200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>2700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>1500</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>1600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>3700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>19100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>5400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>21200</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E15" s="3">
+        <v>39000</v>
+      </c>
+      <c r="F15" s="3">
         <v>39100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>42700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>44400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>45000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>44900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>44800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>41200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>42400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>42700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>41900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>43500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>43100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>40300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>40400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>39400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1205,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1288700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>936100</v>
+      </c>
+      <c r="F17" s="3">
         <v>895700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>909900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1314200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>963300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>959000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>838400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1142800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>895100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>888500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>772300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1111400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>849500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>815000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>724900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1011400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>822300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>95500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-12200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-358200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>103100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>81900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>47900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>101400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>108600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>76400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>50700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>117300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>110900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>29600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>36900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>85800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,114 +1346,128 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-7000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-3100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>2600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>4000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>4200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>2300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>4300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>2600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-13200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>2500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>1400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>129600</v>
+      </c>
+      <c r="F21" s="3">
         <v>20700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-318000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>46700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>151200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>131300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>97400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>142500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>158900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>120500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>93700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>164100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>141400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>73000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>78200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>127300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>158900</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,114 +1519,132 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>89900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-19200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-361400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>105700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>85900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>52000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>103700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>113000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>77300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>51200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>120000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>97700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>32200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>37400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>87300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>31700</v>
+      </c>
+      <c r="F24" s="3">
         <v>-5500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-104200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-3100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>24900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>20900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>11300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>27500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>27500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>16900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>11300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>38100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>33900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>10900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>12100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>32600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>43100</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1696,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>58100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-13800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-257200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>4800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>80800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>65000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>40800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>76200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>85500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>60300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>39900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>81900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>63700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>21200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>25200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>54600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>58100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-13800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-257200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>4800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>80800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>65000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>40800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>76200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>85500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>60300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>39900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>81900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>63700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>21200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>25200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>54600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1873,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1792,26 +1914,32 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>12100</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>12100</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1991,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +2050,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F32" s="3">
         <v>7000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>3100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-2600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-4000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-4200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-2300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-4300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-2600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>13200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-1400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>58100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-13800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-257200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>4800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>80800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>65000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>40800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>76200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>85500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>60300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>39900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>94000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>63700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>21200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>25200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>54600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2227,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>58100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-13800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-257200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>4800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>80800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>65000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>40800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>76200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>85500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>60300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>39900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>94000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>63700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>21200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>25200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>54600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F38" s="2">
         <v>44044</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43953</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43862</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43771</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43680</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43589</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43498</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43407</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43225</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43134</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43036</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42945</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42854</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42763</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2377,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,326 +2400,364 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>525000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>367000</v>
+      </c>
+      <c r="F41" s="3">
         <v>404700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>499300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>126100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>134600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>144200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>91900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>108200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>156300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>184300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>209900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>184100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>185500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>162800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>143900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>265300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>209600</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>325500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>325300</v>
+      </c>
+      <c r="F42" s="3">
         <v>494000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>386500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>290800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>129900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>172900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>257800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>317200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>203500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>179000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>99800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>229500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>72000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>29800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>81300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>113300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>146100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>124600</v>
+      </c>
+      <c r="F43" s="3">
         <v>107200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>106800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>119100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>112300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>98600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>73800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>93500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>84100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>74200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>72800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>78300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>77100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>80700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>79400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>86600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>405400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>560000</v>
+      </c>
+      <c r="F44" s="3">
         <v>421200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>421700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>446300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>647300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>534800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>456200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>424400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>591700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>466100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>404300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>398200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>534000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>433500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>364300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>358400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>492600</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>120600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>130900</v>
+      </c>
+      <c r="F45" s="3">
         <v>155100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>144700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>65700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>54400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>69500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>70900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>102900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>88000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>93500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>87800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>78400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>61600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>110500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>94800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>77500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>77800</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1522600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1507800</v>
+      </c>
+      <c r="F46" s="3">
         <v>1582400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1558900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1047900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1078600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1020100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>950600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1046300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1123500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>997100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>874600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>968500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>930200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>817200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>763700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>901200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>936800</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,114 +2809,132 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1779800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1893700</v>
+      </c>
+      <c r="F48" s="3">
         <v>1930800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1960000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2154000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2250500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2216600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2188900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>742100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>735700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>732400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>732200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>724200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>726200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>719100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>710500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>707800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>708500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>70300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>50900</v>
+      </c>
+      <c r="F49" s="3">
         <v>51400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>52000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>53000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>55500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>56300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>57200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>58200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>59100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>60000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>60900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>61700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>62000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>62600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>63200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>64300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2986,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +3045,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>62100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>45900</v>
+      </c>
+      <c r="F52" s="3">
         <v>63300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>59200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>73700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>67700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>66200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>58600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>56800</v>
-      </c>
-      <c r="K52" s="3">
-        <v>63200</v>
-      </c>
-      <c r="L52" s="3">
-        <v>61300</v>
       </c>
       <c r="M52" s="3">
         <v>63200</v>
       </c>
       <c r="N52" s="3">
+        <v>61300</v>
+      </c>
+      <c r="O52" s="3">
+        <v>63200</v>
+      </c>
+      <c r="P52" s="3">
         <v>61800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>83400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>87400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>95800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>109400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3163,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3434800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3498200</v>
+      </c>
+      <c r="F54" s="3">
         <v>3628000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3630100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3328700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3452300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3359200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3255400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1903400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1981500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1850700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1730900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1816300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1801800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1686300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1633200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1782700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1822500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3249,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,61 +3272,69 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>255900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>304600</v>
+      </c>
+      <c r="F57" s="3">
         <v>295300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>177100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>285700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>366700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>317000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>231800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>240700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>343400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>264200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>207800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>236700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>330700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>275500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>208900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>246200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>314100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3118,129 +3386,147 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>602600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>589800</v>
+      </c>
+      <c r="F59" s="3">
         <v>545100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>485100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>466000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>443500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>446700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>418000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>302000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>263800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>243800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>227000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>248500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>222100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>196500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>211700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>247600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>248800</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>858500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>894300</v>
+      </c>
+      <c r="F60" s="3">
         <v>840400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>662200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>751800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>810200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>763600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>649800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>542600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>607100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>508000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>434800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>485200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>552800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>472000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>420600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>493800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>562900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>325300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>321100</v>
+      </c>
+      <c r="F61" s="3">
         <v>517000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>643000</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3277,61 +3563,73 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1164400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1214600</v>
+      </c>
+      <c r="F62" s="3">
         <v>1272700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1327900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1329100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1381700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1366900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1363800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>73200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>78900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>82200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>88700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>84300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>85700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>90000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>94700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>84300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>87700</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3681,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3740,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3799,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2348100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2430000</v>
+      </c>
+      <c r="F66" s="3">
         <v>2630100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2633100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2080800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2191900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2130600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2013600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>615800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>686100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>590200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>523500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>569500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>638600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>562000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>515300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>578100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>650600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3885,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3940,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3999,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +4058,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +4117,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1868600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1865400</v>
+      </c>
+      <c r="F72" s="3">
         <v>1807700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>1826400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>2108300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>2127300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>2070100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>2028600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2054700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2002700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1941500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1904200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1883600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1812800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1772200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1774300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1775800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1744200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4235,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4294,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4353,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1086700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1068200</v>
+      </c>
+      <c r="F76" s="3">
         <v>997900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>997000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1247900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1260400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1228600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1241800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1287600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1295400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1260600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1207400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1246800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1163200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1124300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1117900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1204600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1172000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4471,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F80" s="2">
         <v>44044</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43953</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43862</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43771</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43680</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43589</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43498</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43407</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43225</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43134</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43036</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42945</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42854</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42763</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>58100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-13800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-257200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>4800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>80800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>65000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>40800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>76200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>85500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>60300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>39900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>94000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>63700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>21200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>25200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>54600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,61 +4621,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>39800</v>
+      </c>
+      <c r="F83" s="3">
         <v>39900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>43400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>45000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>45600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>45400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>45400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>38800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>46000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>43300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>42500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>44100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>43700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>40800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>40900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>40000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4735,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4794,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4853,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4912,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4971,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>212900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>26000</v>
+      </c>
+      <c r="F89" s="3">
         <v>173500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-209900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>237200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>60600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>109900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>7700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>213100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>91200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>124400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>28000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>206300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>134900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>42500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>10700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>162700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>101500</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +5057,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-27500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-33900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-60500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-58100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-55200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-36600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-45100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-42600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-54500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-46900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-34500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-48400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-46400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-40100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-54200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-47300</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +5171,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5230,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="F94" s="3">
         <v>2300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-9100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-65800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-58200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-61200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>10400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-58500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-82600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-74600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-67200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-36600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-48900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-46500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-40100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-54200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-47300</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,61 +5316,69 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-22900</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-23000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-23000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-23200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-23600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-25800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-22700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-24400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-24200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-22200</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-22100</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-22100</v>
       </c>
       <c r="Q96" s="3">
         <v>-22100</v>
       </c>
       <c r="R96" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="S96" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="T96" s="3">
         <v>-22700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-22700</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5430,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5489,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,163 +5548,187 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-200300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-134400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>714600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-23100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-55400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-86100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-46600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-102400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-49300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-16600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-84300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-13900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-23900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-27300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-123600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-21600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F101" s="3">
         <v>1600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-1800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>1300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-2800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>2900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>158100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-206400</v>
+      </c>
+      <c r="F102" s="3">
         <v>43000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>493800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>147400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-52700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-37500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-28700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>53500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-43500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>33600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-123900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>156100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>65000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-32600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-153400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>86900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>43700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>AEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,271 +665,284 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44317</v>
+      </c>
+      <c r="E7" s="2">
         <v>44226</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44044</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43953</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43862</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43771</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43680</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43589</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43498</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43407</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43316</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43225</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43134</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43036</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42945</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42854</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42763</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1034600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1292300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1031600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>883500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>551700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1314600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1066400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1040900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>886300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1244200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1003700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>964900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>823000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1228700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>960400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>844600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>761800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1097200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>940600</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>598400</v>
+      </c>
+      <c r="E9" s="3">
         <v>852400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>616800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>618300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>523400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>906900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>659400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>658300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>561400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>813600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>604200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>611800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>518500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>803600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>585500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>551900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>484000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>708700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>562800</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>436200</v>
+      </c>
+      <c r="E10" s="3">
         <v>439900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>414800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>265200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>28300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>407700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>407100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>382600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>324900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>430600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>399500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>353100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>304500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>425100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>374900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>292700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>277800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>388500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>377800</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -951,8 +964,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1010,8 +1024,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1069,38 +1086,41 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>102600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>7000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>14600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>155600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>76200</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>2700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1500</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1108,87 +1128,93 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>1600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>19100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>5400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>21200</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E15" s="3">
         <v>41600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>39000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>39100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>42700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>44400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>45000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>44900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>44800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>41200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>42400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>42700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>41900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>43500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>43100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>40300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>40400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>39400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1207,126 +1233,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>901200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1288700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>936100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>895700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>909900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1314200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>963300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>959000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>838400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1142800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>895100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>888500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>772300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1111400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>849500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>815000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>724900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1011400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>822300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>133400</v>
+      </c>
+      <c r="E18" s="3">
         <v>3600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>95500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-12200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-358200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>103100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>81900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>47900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>101400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>108600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>76400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>50700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>117300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>110900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>29600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>36900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>85800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1348,126 +1381,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-13200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>166100</v>
+      </c>
+      <c r="E21" s="3">
         <v>41000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>129600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>20700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-318000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>46700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>151200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>131300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>97400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>142500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>158900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>120500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>93700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>164100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>141400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>73000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>78200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>127300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>158900</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1525,126 +1565,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>126800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>89900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-19200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-361400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>105700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>85900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>52000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>103700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>113000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>77300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>51200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>120000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>97700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>32200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>37400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>87300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-5100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>31700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-5500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-104200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-3100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>24900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>20900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11300</v>
-      </c>
-      <c r="L24" s="3">
-        <v>27500</v>
       </c>
       <c r="M24" s="3">
         <v>27500</v>
       </c>
       <c r="N24" s="3">
+        <v>27500</v>
+      </c>
+      <c r="O24" s="3">
         <v>16900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>38100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>33900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>10900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>12100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>32600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>43100</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1702,126 +1751,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>95500</v>
+      </c>
+      <c r="E26" s="3">
         <v>3500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>58100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-13800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-257200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>80800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>65000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>40800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>76200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>85500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>60300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>39900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>81900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>63700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>21200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>25200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>54600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>95500</v>
+      </c>
+      <c r="E27" s="3">
         <v>3500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>58100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-13800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-257200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>80800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>65000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>40800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>76200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>85500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>60300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>39900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>81900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>63700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>21200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>25200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>54600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1879,31 +1937,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1920,11 +1981,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>12100</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1932,14 +1993,17 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1997,8 +2061,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2056,126 +2123,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E32" s="3">
         <v>5100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>13200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>95500</v>
+      </c>
+      <c r="E33" s="3">
         <v>3500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>58100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-13800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-257200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>80800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>65000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>40800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>76200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>85500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>60300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>39900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>94000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>63700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>21200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>25200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>54600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2233,131 +2309,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>95500</v>
+      </c>
+      <c r="E35" s="3">
         <v>3500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>58100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-13800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-257200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>80800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>65000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>40800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>76200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>85500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>60300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>39900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>94000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>63700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>21200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>25200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>54600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44317</v>
+      </c>
+      <c r="E38" s="2">
         <v>44226</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44044</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43953</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43862</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43771</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43680</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43589</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43498</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43407</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43316</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43225</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43134</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43036</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42945</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42854</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42763</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2379,8 +2464,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2402,362 +2488,381 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>466000</v>
+      </c>
+      <c r="E41" s="3">
         <v>525000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>367000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>404700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>499300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>126100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>134600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>144200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>91900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>108200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>156300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>184300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>209900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>184100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>185500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>162800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>143900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>265300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>209600</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>325700</v>
+      </c>
+      <c r="E42" s="3">
         <v>325500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>325300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>494000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>386500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>290800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>129900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>172900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>257800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>317200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>203500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>179000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>99800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>229500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>72000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>29800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>81300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>113300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>149100</v>
+      </c>
+      <c r="E43" s="3">
         <v>146100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>124600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>107200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>106800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>119100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>112300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>98600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>73800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>93500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>84100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>74200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>72800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>78300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>77100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>80700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>79400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>86600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>466700</v>
+      </c>
+      <c r="E44" s="3">
         <v>405400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>560000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>421200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>421700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>446300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>647300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>534800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>456200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>424400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>591700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>466100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>404300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>398200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>534000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>433500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>364300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>358400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>492600</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>88300</v>
+      </c>
+      <c r="E45" s="3">
         <v>120600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>130900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>155100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>144700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>65700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>54400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>69500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>70900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>102900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>88000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>93500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>87800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>78400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>61600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>110500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>94800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>77500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>77800</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1495800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1522600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1507800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1582400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1558900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1047900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1078600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1020100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>950600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1046300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1123500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>997100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>874600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>968500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>930200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>817200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>763700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>901200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>936800</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2815,126 +2920,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1758700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1779800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1893700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1930800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1960000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2154000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2250500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2216600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2188900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>742100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>735700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>732400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>732200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>724200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>726200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>719100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>710500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>707800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>708500</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>69700</v>
+      </c>
+      <c r="E49" s="3">
         <v>70300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>50900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>51400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>52000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>53000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>55500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>56300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>57200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>58200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>59100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>60000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>60900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>61700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>62000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>62600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>63200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>64300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2992,8 +3106,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3051,67 +3168,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>76500</v>
+      </c>
+      <c r="E52" s="3">
         <v>62100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>45900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>63300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>59200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>73700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>67700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>66200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>58600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>56800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>63200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>61300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>63200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>61800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>83400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>87400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>95800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>109400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3169,67 +3292,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3400700</v>
+      </c>
+      <c r="E54" s="3">
         <v>3434800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3498200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3628000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3630100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3328700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3452300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3359200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3255400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1903400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1981500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1850700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1730900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1816300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1801800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1686300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1633200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1782700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1822500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3251,8 +3380,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3274,67 +3404,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>231900</v>
+      </c>
+      <c r="E57" s="3">
         <v>255900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>304600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>295300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>177100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>285700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>366700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>317000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>231800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>240700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>343400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>264200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>207800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>236700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>330700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>275500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>208900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>246200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>314100</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3392,144 +3526,153 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>512600</v>
+      </c>
+      <c r="E59" s="3">
         <v>602600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>589800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>545100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>485100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>466000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>443500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>446700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>418000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>302000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>263800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>243800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>227000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>248500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>222100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>196500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>211700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>247600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>248800</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>744500</v>
+      </c>
+      <c r="E60" s="3">
         <v>858500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>894300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>840400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>662200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>751800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>810200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>763600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>649800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>542600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>607100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>508000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>434800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>485200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>552800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>472000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>420600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>493800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>562900</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>329700</v>
+      </c>
+      <c r="E61" s="3">
         <v>325300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>321100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>517000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>643000</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3569,67 +3712,73 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1150900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1164400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1214600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1272700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1327900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1329100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1381700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1366900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1363800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>73200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>78900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>82200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>88700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>84300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>85700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>90000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>94700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>84300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>87700</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3687,8 +3836,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3746,8 +3898,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3805,67 +3960,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2225100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2348100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2430000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2630100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2633100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2080800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2191900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2130600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2013600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>615800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>686100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>590200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>523500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>569500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>638600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>562000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>515300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>578100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>650600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3887,8 +4048,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3946,8 +4108,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4005,8 +4170,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4064,8 +4232,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4123,67 +4294,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1951500</v>
+      </c>
+      <c r="E72" s="3">
         <v>1868600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1865400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1807700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1826400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2108300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2127300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2070100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2028600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2054700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2002700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1941500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1904200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1883600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1812800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1772200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1774300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1775800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1744200</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4241,8 +4418,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4300,8 +4480,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4359,67 +4542,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1175600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1086700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1068200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>997900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>997000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1247900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1260400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1228600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1241800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1287600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1295400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1260600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1207400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1246800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1163200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1124300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1117900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1204600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1172000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4477,131 +4666,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44317</v>
+      </c>
+      <c r="E80" s="2">
         <v>44226</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44044</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43953</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43862</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43771</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43680</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43589</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43498</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43407</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43316</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43225</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43134</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43036</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42945</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42854</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42763</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>95500</v>
+      </c>
+      <c r="E81" s="3">
         <v>3500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>58100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-13800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-257200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>80800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>65000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>40800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>76200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>85500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>60300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>39900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>94000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>63700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>21200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>25200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>54600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4623,67 +4821,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E83" s="3">
         <v>42500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>39800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>39900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>43400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>45000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>45600</v>
-      </c>
-      <c r="J83" s="3">
-        <v>45400</v>
       </c>
       <c r="K83" s="3">
         <v>45400</v>
       </c>
       <c r="L83" s="3">
+        <v>45400</v>
+      </c>
+      <c r="M83" s="3">
         <v>38800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>46000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>43300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>42500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>44100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>43700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>40800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>40900</v>
-      </c>
-      <c r="T83" s="3">
-        <v>40000</v>
       </c>
       <c r="U83" s="3">
         <v>40000</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4741,8 +4943,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4800,8 +5005,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4859,8 +5067,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4918,8 +5129,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4977,67 +5191,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>400</v>
+      </c>
+      <c r="E89" s="3">
         <v>212900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>26000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>173500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-209900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>237200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>60600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>109900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>213100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>91200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>124400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>28000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>206300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>134900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>42500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>10700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>162700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>101500</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5059,67 +5279,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-35400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-31200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-27500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-33900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-60500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-58100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-55200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-36600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-45100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-42600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-54500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-46900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-34500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-48400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-46400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-40100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-54200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-47300</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5177,8 +5401,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5236,67 +5463,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-112200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-35800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-31300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>2300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-65800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-58200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-61200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>10400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-58500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-82600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-74600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-67200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-36600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-48900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-46500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-40100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-54200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-47300</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5318,8 +5551,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5327,7 +5561,7 @@
         <v>-22900</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-22900</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -5336,34 +5570,34 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-23000</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>-23000</v>
       </c>
       <c r="J96" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-23200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-23600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-25800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-22700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-24400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-24200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-22200</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-22100</v>
       </c>
       <c r="R96" s="3">
         <v>-22100</v>
@@ -5372,13 +5606,16 @@
         <v>-22100</v>
       </c>
       <c r="T96" s="3">
-        <v>-22700</v>
+        <v>-22100</v>
       </c>
       <c r="U96" s="3">
         <v>-22700</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>-22700</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5436,8 +5673,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5495,8 +5735,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5554,181 +5797,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-20000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-200300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-134400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>714600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-23100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-55400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-86100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-46600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-102400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-49300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-16600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-84300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-13900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-23900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-27300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-123600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-21600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-133800</v>
+      </c>
+      <c r="E102" s="3">
         <v>158100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-206400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>43000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>493800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>147400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-52700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-37500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-28700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>53500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-43500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>33600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-123900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>156100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>65000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-32600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-153400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>86900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>43700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>AEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,284 +665,310 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44499</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="F7" s="2">
         <v>44317</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44226</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44044</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43953</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43862</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43771</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43680</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43589</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43498</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43407</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43316</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43225</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43134</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43036</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42945</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42854</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42763</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1274100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1194200</v>
+      </c>
+      <c r="F8" s="3">
         <v>1034600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1292300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1031600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>883500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>551700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1314600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1066400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1040900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>886300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1244200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1003700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>964900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>823000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1228700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>960400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>844600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>761800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1097200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>940600</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>709600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>691800</v>
+      </c>
+      <c r="F9" s="3">
         <v>598400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>852400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>616800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>618300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>523400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>906900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>659400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>658300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>561400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>813600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>604200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>611800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>518500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>803600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>585500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>551900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>484000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>708700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>562800</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>564500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>502400</v>
+      </c>
+      <c r="F10" s="3">
         <v>436200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>439900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>414800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>265200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>28300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>407700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>407100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>382600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>324900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>430600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>399500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>353100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>304500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>425100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>374900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>292700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>277800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>388500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>377800</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +991,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1027,8 +1055,14 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1089,8 +1123,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1098,123 +1138,135 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>102600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>7000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>14600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>155600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>76200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>2700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>1500</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>1600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>3700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>19100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>5400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>21200</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E15" s="3">
+        <v>40500</v>
+      </c>
+      <c r="F15" s="3">
         <v>38300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>41600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>39000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>39100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>42700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>44400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>45000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>44900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>44800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>41200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>42400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>42700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>41900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>43500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>43100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>40300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>40400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>39400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1234,132 +1286,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1064400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1026200</v>
+      </c>
+      <c r="F17" s="3">
         <v>901200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1288700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>936100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>895700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>909900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1314200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>963300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>959000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>838400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1142800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>895100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>888500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>772300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1111400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>849500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>815000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>724900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1011400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>822300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>209700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>168000</v>
+      </c>
+      <c r="F18" s="3">
         <v>133400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>3600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>95500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-12200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-358200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>103100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>81900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>47900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>101400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>108600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>76400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>50700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>117300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>110900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>29600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>36900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>85800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1382,132 +1448,146 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-6600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-5100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-5700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-7000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-3100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>2600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>4000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>4200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>2300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>4300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>2600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-13200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>2500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>1400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>246300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>202000</v>
+      </c>
+      <c r="F21" s="3">
         <v>166100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>41000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>129600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>20700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-318000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>46700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>151200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>131300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>97400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>142500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>158900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>120500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>93700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>164100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>141400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>73000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>78200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>127300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>158900</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1568,132 +1648,150 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>204200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>160400</v>
+      </c>
+      <c r="F23" s="3">
         <v>126800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>89900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-19200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-361400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>105700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>85900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>52000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>103700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>113000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>77300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>51200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>120000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>97700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>32200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>37400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>87300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>38900</v>
+      </c>
+      <c r="F24" s="3">
         <v>31300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-5100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>31700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-5500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-104200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-3100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>24900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>20900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>11300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>27500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>27500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>16900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>11300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>38100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>33900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>10900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>12100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>32600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>43100</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1754,132 +1852,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>152200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>121500</v>
+      </c>
+      <c r="F26" s="3">
         <v>95500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>3500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>58100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-13800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-257200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>4800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>80800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>65000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>40800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>76200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>85500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>60300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>39900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>81900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>63700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>21200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>25200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>54600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>152200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>121500</v>
+      </c>
+      <c r="F27" s="3">
         <v>95500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>3500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>58100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-13800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-257200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>4800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>80800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>65000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>40800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>76200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>85500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>60300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>39900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>81900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>63700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>21200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>25200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>54600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1940,8 +2056,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1966,11 +2088,11 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1984,26 +2106,32 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>12100</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>12100</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2064,8 +2192,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2126,132 +2260,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F32" s="3">
         <v>6600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>5100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>5700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>7000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>3100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-2600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-4000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-4200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-2300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-4300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-2600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>13200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-2500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-1400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>152200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>121500</v>
+      </c>
+      <c r="F33" s="3">
         <v>95500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>3500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>58100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-13800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-257200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>4800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>80800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>65000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>40800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>76200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>85500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>60300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>39900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>94000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>63700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>21200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>25200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>54600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2312,137 +2464,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>152200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>121500</v>
+      </c>
+      <c r="F35" s="3">
         <v>95500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>3500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>58100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-13800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-257200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>4800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>80800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>65000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>40800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>76200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>85500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>60300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>39900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>94000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>63700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>21200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>25200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>54600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44499</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="F38" s="2">
         <v>44317</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44226</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44044</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43953</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43862</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43771</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43680</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43589</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43498</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43407</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43316</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43225</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43134</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43036</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42945</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42854</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42763</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2465,8 +2635,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2489,380 +2661,418 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>364800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>498200</v>
+      </c>
+      <c r="F41" s="3">
         <v>466000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>525000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>367000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>404700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>499300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>126100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>134600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>144200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>91900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>108200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>156300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>184300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>209900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>184100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>185500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>162800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>143900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>265300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>209600</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>375900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>325800</v>
+      </c>
+      <c r="F42" s="3">
         <v>325700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>325500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>325300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>494000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>386500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>290800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>129900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>172900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>257800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>317200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>203500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>179000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>99800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>229500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>72000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>29800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>81300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>113300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>228500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>155400</v>
+      </c>
+      <c r="F43" s="3">
         <v>149100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>146100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>124600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>107200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>106800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>119100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>112300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>98600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>73800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>93500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>84100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>74200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>72800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>78300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>77100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>80700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>79400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>86600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>739800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>503500</v>
+      </c>
+      <c r="F44" s="3">
         <v>466700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>405400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>560000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>421200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>421700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>446300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>647300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>534800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>456200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>424400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>591700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>466100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>404300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>398200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>534000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>433500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>364300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>358400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>492600</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>66600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>118700</v>
+      </c>
+      <c r="F45" s="3">
         <v>88300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>120600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>130900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>155100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>144700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>65700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>54400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>69500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>70900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>102900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>88000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>93500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>87800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>78400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>61600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>110500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>94800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>77500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>77800</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1775500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1601600</v>
+      </c>
+      <c r="F46" s="3">
         <v>1495800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1522600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1507800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1582400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1558900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1047900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1078600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1020100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>950600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1046300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1123500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>997100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>874600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>968500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>930200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>817200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>763700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>901200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>936800</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2923,132 +3133,150 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1813500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1744600</v>
+      </c>
+      <c r="F48" s="3">
         <v>1758700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1779800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1893700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1930800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1960000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2154000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2250500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2216600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2188900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>742100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>735700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>732400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>732200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>724200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>726200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>719100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>710500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>707800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>708500</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>69300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>70600</v>
+      </c>
+      <c r="F49" s="3">
         <v>69700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>70300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>50900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>51400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>52000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>53000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>55500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>56300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>57200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>58200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>59100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>60000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>60900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>61700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>62000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>62600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>63200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>64300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3109,8 +3337,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3171,70 +3405,82 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>91600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>78200</v>
+      </c>
+      <c r="F52" s="3">
         <v>76500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>62100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>45900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>63300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>59200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>73700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>67700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>66200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>58600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>56800</v>
-      </c>
-      <c r="N52" s="3">
-        <v>63200</v>
-      </c>
-      <c r="O52" s="3">
-        <v>61300</v>
       </c>
       <c r="P52" s="3">
         <v>63200</v>
       </c>
       <c r="Q52" s="3">
+        <v>61300</v>
+      </c>
+      <c r="R52" s="3">
+        <v>63200</v>
+      </c>
+      <c r="S52" s="3">
         <v>61800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>83400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>87400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>95800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>109400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3295,70 +3541,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3750000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3495000</v>
+      </c>
+      <c r="F54" s="3">
         <v>3400700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3434800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3498200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3628000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3630100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3328700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3452300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3359200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3255400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1903400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1981500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1850700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1730900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1816300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1801800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1686300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1633200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1782700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1822500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3381,8 +3639,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3405,70 +3665,78 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>314600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>221500</v>
+      </c>
+      <c r="F57" s="3">
         <v>231900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>255900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>304600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>295300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>177100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>285700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>366700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>317000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>231800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>240700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>343400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>264200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>207800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>236700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>330700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>275500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>208900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>246200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>314100</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3529,156 +3797,174 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>555000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>547700</v>
+      </c>
+      <c r="F59" s="3">
         <v>512600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>602600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>589800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>545100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>485100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>466000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>443500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>446700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>418000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>302000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>263800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>243800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>227000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>248500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>222100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>196500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>211700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>247600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>248800</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>869600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>769200</v>
+      </c>
+      <c r="F60" s="3">
         <v>744500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>858500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>894300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>840400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>662200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>751800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>810200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>763600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>649800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>542600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>607100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>508000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>434800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>485200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>552800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>472000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>420600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>493800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>562900</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>336200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>331700</v>
+      </c>
+      <c r="F61" s="3">
         <v>329700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>325300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>321100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>517000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>643000</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3715,70 +4001,82 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1147500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1118600</v>
+      </c>
+      <c r="F62" s="3">
         <v>1150900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1164400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1214600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1272700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1327900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1329100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1381700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1366900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1363800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>73200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>78900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>82200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>88700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>84300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>85700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>90000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>94700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>84300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>87700</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3839,8 +4137,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3901,8 +4205,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3963,70 +4273,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2353300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2219500</v>
+      </c>
+      <c r="F66" s="3">
         <v>2225100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2348100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2430000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2630100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2633100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2080800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2191900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2130600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2013600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>615800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>686100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>590200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>523500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>569500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>638600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>562000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>515300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>578100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>650600</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4049,8 +4371,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4111,8 +4435,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4173,8 +4503,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4235,8 +4571,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4297,70 +4639,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2185400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2058400</v>
+      </c>
+      <c r="F72" s="3">
         <v>1951500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>1868600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>1865400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1807700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>1826400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>2108300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2127300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2070100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>2028600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>2054700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>2002700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1941500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1904200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1883600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1812800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1772200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1774300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>1775800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>1744200</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4421,8 +4775,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4483,8 +4843,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4545,70 +4911,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1396700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1275500</v>
+      </c>
+      <c r="F76" s="3">
         <v>1175600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1086700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1068200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>997900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>997000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1247900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1260400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1228600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1241800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1287600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1295400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1260600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1207400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1246800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1163200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1124300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1117900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1204600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1172000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4669,137 +5047,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44499</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="F80" s="2">
         <v>44317</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44226</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44044</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43953</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43862</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43771</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43680</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43589</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43498</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43407</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43316</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43225</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43134</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43036</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42945</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42854</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42763</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>152200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>121500</v>
+      </c>
+      <c r="F81" s="3">
         <v>95500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>3500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>58100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-13800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-257200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>4800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>80800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>65000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>40800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>76200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>85500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>60300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>39900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>94000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>63700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>21200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>25200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>54600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4822,70 +5218,78 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>42100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>41500</v>
+      </c>
+      <c r="F83" s="3">
         <v>39300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>42500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>39800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>39900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>43400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>45000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>45600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>45400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>45400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>38800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>46000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>43300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>42500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>44100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>43700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>40800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>40900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>40000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4946,8 +5350,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5008,8 +5418,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5070,8 +5486,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5132,8 +5554,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5194,70 +5622,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>121500</v>
+      </c>
+      <c r="F89" s="3">
         <v>400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>212900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>26000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>173500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-209900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>237200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>60600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>109900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>7700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>213100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>91200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>124400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>28000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>206300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>134900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>42500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>10700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>162700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>101500</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5280,70 +5720,78 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-58200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-49400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-36800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-35400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-31200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-27500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-33900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-60500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-58100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-55200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-36600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-45100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-42600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-54500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-46900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-34500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-48400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-46400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-40100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-54200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-47300</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5404,8 +5852,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5466,70 +5920,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-112200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-35800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-31300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>2300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-9100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-65800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-58200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-61200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>10400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-58500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-82600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-74600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-67200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-36600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-48900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-46500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-40100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-54200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-47300</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5552,70 +6018,78 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="F96" s="3">
         <v>-22900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-22900</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-23000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-23000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-23200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-23600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-25800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-22700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-24400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-24200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-22200</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-22100</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-22100</v>
       </c>
       <c r="T96" s="3">
         <v>-22100</v>
       </c>
       <c r="U96" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="V96" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="W96" s="3">
         <v>-22700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-22700</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5676,8 +6150,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5738,8 +6218,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5800,190 +6286,214 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-22100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-20000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-200300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-134400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>714600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-23100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-55400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-86100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-46600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-102400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-49300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-16600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-84300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-13900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-23900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-27300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-123600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-21600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>1600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-1800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>1300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-2800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>2900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-1300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>57300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-133800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>158100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-206400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>43000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>493800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>147400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-52700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-37500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-28700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>53500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-43500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>33600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-123900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>156100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>65000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-32600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-153400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>86900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>43700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>AEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,310 +665,323 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E7" s="2">
         <v>44499</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44317</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44226</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44044</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43953</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43862</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43771</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43680</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43589</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43498</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43407</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43316</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43225</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43134</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43036</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42945</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42854</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42763</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1507900</v>
+      </c>
+      <c r="E8" s="3">
         <v>1274100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1194200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1034600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1292300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1031600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>883500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>551700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1314600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1066400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1040900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>886300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1244200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1003700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>964900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>823000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1228700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>960400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>844600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>761800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1097200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>940600</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1019300</v>
+      </c>
+      <c r="E9" s="3">
         <v>709600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>691800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>598400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>852400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>616800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>618300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>523400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>906900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>659400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>658300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>561400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>813600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>604200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>611800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>518500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>803600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>585500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>551900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>484000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>708700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>562800</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>488600</v>
+      </c>
+      <c r="E10" s="3">
         <v>564500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>502400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>436200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>439900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>414800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>265200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>28300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>407700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>407100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>382600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>324900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>430600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>399500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>353100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>304500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>425100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>374900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>292700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>277800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>388500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>377800</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -993,8 +1006,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1061,8 +1075,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1129,13 +1146,16 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>11900</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1144,32 +1164,32 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>102600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>7000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>14600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>155600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>76200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>2700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1500</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1177,96 +1197,102 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>1600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>19100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>5400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>21200</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E15" s="3">
         <v>40900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>40500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>38300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>41600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>39000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>39100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>42700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>44400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>45000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>44900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>44800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>41200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>42400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>42700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>41900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>43500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>43100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>40300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>40400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>39400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1288,144 +1314,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1428000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1064400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1026200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>901200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1288700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>936100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>895700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>909900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1314200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>963300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>959000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>838400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1142800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>895100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>888500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>772300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1111400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>849500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>815000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>724900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1011400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>822300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>79900</v>
+      </c>
+      <c r="E18" s="3">
         <v>209700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>168000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>133400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>95500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-358200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>103100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>81900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>47900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>101400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>108600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>76400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>50700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>117300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>110900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>29600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>36900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>85800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1450,144 +1483,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-7600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-13200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>115700</v>
+      </c>
+      <c r="E21" s="3">
         <v>246300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>202000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>166100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>41000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>129600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>20700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-318000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>46700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>151200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>131300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>97400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>142500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>158900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>120500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>93700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>164100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>141400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>73000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>78200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>127300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>158900</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1654,144 +1694,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>67500</v>
+      </c>
+      <c r="E23" s="3">
         <v>204200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>160400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>126800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>89900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-19200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-361400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>105700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>85900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>52000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>103700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>113000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>77300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>51200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>120000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>97700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>32200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>37400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>87300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E24" s="3">
         <v>52000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>38900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>31300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-5100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>31700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-5500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-104200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-3100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>24900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>20900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11300</v>
-      </c>
-      <c r="O24" s="3">
-        <v>27500</v>
       </c>
       <c r="P24" s="3">
         <v>27500</v>
       </c>
       <c r="Q24" s="3">
+        <v>27500</v>
+      </c>
+      <c r="R24" s="3">
         <v>16900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>38100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>33900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>10900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>12100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>32600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>43100</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1858,144 +1907,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E26" s="3">
         <v>152200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>121500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>95500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>58100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-13800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-257200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>80800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>65000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>40800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>76200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>85500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>60300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>39900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>81900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>63700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>21200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>25200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>54600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E27" s="3">
         <v>152200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>121500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>95500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>58100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-257200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>80800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>65000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>40800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>76200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>85500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>60300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>39900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>81900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>63700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>21200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>25200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>54600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2062,8 +2120,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2094,8 +2155,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2112,11 +2173,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>12100</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2124,14 +2185,17 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
+      <c r="W29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2198,8 +2262,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2266,144 +2333,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E32" s="3">
         <v>5500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>7600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>13200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E33" s="3">
         <v>152200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>121500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>95500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>58100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-13800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-257200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>80800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>65000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>40800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>76200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>85500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>60300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>39900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>94000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>63700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>21200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>25200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>54600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2470,149 +2546,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E35" s="3">
         <v>152200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>121500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>95500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>58100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-13800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-257200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>80800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>65000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>40800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>76200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>85500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>60300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>39900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>94000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>63700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>21200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>25200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>54600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E38" s="2">
         <v>44499</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44317</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44226</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44044</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43953</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43862</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43771</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43680</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43589</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43498</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43407</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43316</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43225</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43134</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43036</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42945</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42854</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42763</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2637,8 +2722,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2663,416 +2749,435 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>138800</v>
+      </c>
+      <c r="E41" s="3">
         <v>364800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>498200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>466000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>525000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>367000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>404700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>499300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>126100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>134600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>144200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>91900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>108200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>156300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>184300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>209900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>184100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>185500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>162800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>143900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>265300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>209600</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>296000</v>
+      </c>
+      <c r="E42" s="3">
         <v>375900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>325800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>325700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>325500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>325300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>494000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>386500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>290800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>129900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>172900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>257800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>317200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>203500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>179000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>99800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>229500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>72000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>29800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>81300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>113300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>286700</v>
+      </c>
+      <c r="E43" s="3">
         <v>228500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>155400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>149100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>146100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>124600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>107200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>106800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>119100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>112300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>98600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>73800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>93500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>84100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>74200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>72800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>78300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>77100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>80700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>79400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>86600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>553500</v>
+      </c>
+      <c r="E44" s="3">
         <v>739800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>503500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>466700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>405400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>560000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>421200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>421700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>446300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>647300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>534800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>456200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>424400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>591700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>466100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>404300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>398200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>534000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>433500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>364300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>358400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>492600</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E45" s="3">
         <v>66600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>118700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>88300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>120600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>130900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>155100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>144700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>65700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>54400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>69500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>70900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>102900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>88000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>93500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>87800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>78400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>61600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>110500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>94800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>77500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>77800</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1396900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1775500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1601600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1495800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1522600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1507800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1582400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1558900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1047900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1078600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1020100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>950600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1046300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1123500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>997100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>874600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>968500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>930200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>817200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>763700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>901200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>936800</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3139,144 +3244,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1921300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1813500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1744600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1758700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1779800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1893700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1930800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1960000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2154000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2250500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2216600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2188900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>742100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>735700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>732400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>732200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>724200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>726200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>719100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>710500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>707800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>708500</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>374100</v>
+      </c>
+      <c r="E49" s="3">
         <v>69300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>70600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>69700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>70300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>50900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>51400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>52000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>53000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>55500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>56300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>57200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>58200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>59100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>60000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>60900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>61700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>62000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>62600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>63200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>64300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3343,8 +3457,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3411,76 +3528,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>94300</v>
+      </c>
+      <c r="E52" s="3">
         <v>91600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>78200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>76500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>62100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>45900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>63300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>59200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>73700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>67700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>66200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>58600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>56800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>63200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>61300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>63200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>61800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>83400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>87400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>95800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>109400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3547,76 +3670,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3786600</v>
+      </c>
+      <c r="E54" s="3">
         <v>3750000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3495000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3400700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3434800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3498200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3628000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3630100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3328700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3452300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3359200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3255400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1903400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1981500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1850700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1730900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1816300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1801800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1686300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1633200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1782700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1822500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3641,8 +3770,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3667,76 +3797,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>231800</v>
+      </c>
+      <c r="E57" s="3">
         <v>314600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>221500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>231900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>255900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>304600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>295300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>177100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>285700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>366700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>317000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>231800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>240700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>343400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>264200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>207800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>236700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>330700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>275500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>208900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>246200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>314100</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3803,171 +3937,180 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>611100</v>
+      </c>
+      <c r="E59" s="3">
         <v>555000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>547700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>512600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>602600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>589800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>545100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>485100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>466000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>443500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>446700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>418000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>302000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>263800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>243800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>227000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>248500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>222100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>196500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>211700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>247600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>248800</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>842900</v>
+      </c>
+      <c r="E60" s="3">
         <v>869600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>769200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>744500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>858500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>894300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>840400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>662200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>751800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>810200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>763600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>649800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>542600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>607100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>508000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>434800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>485200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>552800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>472000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>420600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>493800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>562900</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>341000</v>
+      </c>
+      <c r="E61" s="3">
         <v>336200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>331700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>329700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>325300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>321100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>517000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>643000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -4007,76 +4150,82 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1179100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1147500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1118600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1150900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1164400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1214600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1272700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1327900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1329100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1381700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1366900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1363800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>73200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>78900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>82200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>88700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>84300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>85700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>90000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>94700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>84300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>87700</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4143,8 +4292,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4211,8 +4363,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4279,76 +4434,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2363000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2353300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2219500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2225100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2348100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2430000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2630100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2633100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2080800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2191900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2130600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2013600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>615800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>686100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>590200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>523500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>569500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>638600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>562000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>515300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>578100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>650600</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4373,8 +4534,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4441,8 +4603,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4509,8 +4674,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4577,8 +4745,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4645,76 +4816,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2203800</v>
+      </c>
+      <c r="E72" s="3">
         <v>2185400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2058400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1951500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1868600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1865400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1807700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1826400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2108300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2127300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2070100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2028600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2054700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2002700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1941500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1904200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1883600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1812800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1772200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1774300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1775800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1744200</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4781,8 +4958,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4849,8 +5029,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4917,76 +5100,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1423700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1396700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1275500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1175600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1086700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1068200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>997900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>997000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1247900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1260400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1228600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1241800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1287600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1295400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1260600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1207400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1246800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1163200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1124300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1117900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1204600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1172000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5053,149 +5242,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E80" s="2">
         <v>44499</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44317</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44226</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44044</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43953</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43862</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43771</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43680</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43589</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43498</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43407</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43316</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43225</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43134</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43036</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42945</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42854</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42763</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E81" s="3">
         <v>152200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>121500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>95500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>58100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-13800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-257200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>80800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>65000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>40800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>76200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>85500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>60300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>39900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>94000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>63700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>21200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>25200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>54600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5220,76 +5418,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E83" s="3">
         <v>42100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>41500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>39300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>42500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>39800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>39900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>43400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>45000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>45600</v>
-      </c>
-      <c r="M83" s="3">
-        <v>45400</v>
       </c>
       <c r="N83" s="3">
         <v>45400</v>
       </c>
       <c r="O83" s="3">
+        <v>45400</v>
+      </c>
+      <c r="P83" s="3">
         <v>38800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>46000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>43300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>42500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>44100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>43700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>40800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>40900</v>
-      </c>
-      <c r="W83" s="3">
-        <v>40000</v>
       </c>
       <c r="X83" s="3">
         <v>40000</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5356,8 +5558,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5424,8 +5629,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5492,8 +5700,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5560,8 +5771,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5628,76 +5842,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>170000</v>
+      </c>
+      <c r="E89" s="3">
         <v>11800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>121500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>212900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>26000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>173500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-209900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>237200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>60600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>109900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>213100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>91200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>124400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>28000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>206300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>134900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>42500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>10700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>162700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>101500</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5722,76 +5942,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-89400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-58200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-49400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-36800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-35400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-31200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-27500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-33900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-60500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-58100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-55200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-36600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-45100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-42600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-54500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-46900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-34500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-48400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-46400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-40100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-54200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-47300</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5858,8 +6082,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5926,76 +6153,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-445800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-28200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-112200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-35800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-31300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>2300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-9100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-65800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-58200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-61200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>10400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-58500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-82600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-74600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-67200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-36600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-48900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-46500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-40100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-54200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-47300</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6020,8 +6253,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6029,16 +6263,16 @@
         <v>-30400</v>
       </c>
       <c r="E96" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="F96" s="3">
         <v>-30300</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-22900</v>
       </c>
       <c r="G96" s="3">
         <v>-22900</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-22900</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -6047,34 +6281,34 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
-        <v>-23000</v>
+        <v>0</v>
       </c>
       <c r="L96" s="3">
         <v>-23000</v>
       </c>
       <c r="M96" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-23200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-23600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-25800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-22700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-24400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-24200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-22200</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-22100</v>
       </c>
       <c r="U96" s="3">
         <v>-22100</v>
@@ -6083,13 +6317,16 @@
         <v>-22100</v>
       </c>
       <c r="W96" s="3">
-        <v>-22700</v>
+        <v>-22100</v>
       </c>
       <c r="X96" s="3">
         <v>-22700</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>-22700</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6156,8 +6393,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6224,8 +6464,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6292,208 +6535,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-36800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-35900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-22100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-20000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-200300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-134400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>714600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-23100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-55400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-86100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-46600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-102400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-49300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-16600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-84300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-13900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-23900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-27300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-123600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-21600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-305900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-33300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>57300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-133800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>158100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-206400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>43000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>493800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>147400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-52700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-37500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-28700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>53500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-43500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>33600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-123900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>156100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>65000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-32600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-153400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>86900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>43700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>AEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,323 +665,335 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44590</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44499</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44317</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44226</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44044</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43953</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43862</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43771</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43680</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43589</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43498</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43407</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43316</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43225</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43134</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43036</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42945</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42854</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42763</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1055000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1507900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1274100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1194200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1034600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1292300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1031600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>883500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>551700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1314600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1066400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1040900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>886300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1244200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1003700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>964900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>823000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1228700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>960400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>844600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>761800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1097200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>940600</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>667000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1019300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>709600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>691800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>598400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>852400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>616800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>618300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>523400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>906900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>659400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>658300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>561400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>813600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>604200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>611800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>518500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>803600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>585500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>551900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>484000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>708700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>562800</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>388000</v>
+      </c>
+      <c r="E10" s="3">
         <v>488600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>564500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>502400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>436200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>439900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>414800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>265200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>28300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>407700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>407100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>382600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>324900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>430600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>399500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>353100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>304500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>425100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>374900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>292700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>277800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>388500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>377800</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1007,8 +1019,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1078,8 +1091,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1149,17 +1165,20 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>11900</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
@@ -1167,32 +1186,32 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>102600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>7000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>14600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>155600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>76200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>2700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1500</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1200,99 +1219,105 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>1600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>3700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>19100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>5400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>21200</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>47400</v>
+      </c>
+      <c r="E15" s="3">
         <v>47100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>40900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>40500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>38300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>41600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>39000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>39100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>42700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>44400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>45000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>44900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>44800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>41200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>42400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>42700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>41900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>43500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>43100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>40300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>40400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>39400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1315,150 +1340,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1013100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1428000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1064400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1026200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>901200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1288700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>936100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>895700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>909900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1314200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>963300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>959000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>838400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1142800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>895100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>888500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>772300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1111400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>849500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>815000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>724900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1011400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>822300</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E18" s="3">
         <v>79900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>209700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>168000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>133400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>95500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-358200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>103100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>81900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>47900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>101400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>108600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>76400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>50700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>117300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>110900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>29600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>36900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>85800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1484,150 +1516,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-12400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-13200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>90400</v>
+      </c>
+      <c r="E21" s="3">
         <v>115700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>246300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>202000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>166100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>41000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>129600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>20700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-318000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>46700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>151200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>131300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>97400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>142500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>158900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>120500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>93700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>164100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>141400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>73000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>78200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>127300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>158900</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1697,150 +1736,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E23" s="3">
         <v>67500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>204200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>160400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>126800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>89900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-19200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-361400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>105700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>85900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>52000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>103700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>113000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>77300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>51200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>120000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>97700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>32200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>37400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>87300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E24" s="3">
         <v>17100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>52000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>38900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>31300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-5100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>31700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-5500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-104200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-3100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>24900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>20900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11300</v>
-      </c>
-      <c r="P24" s="3">
-        <v>27500</v>
       </c>
       <c r="Q24" s="3">
         <v>27500</v>
       </c>
       <c r="R24" s="3">
+        <v>27500</v>
+      </c>
+      <c r="S24" s="3">
         <v>16900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>38100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>33900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>10900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>12100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>32600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>43100</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1910,150 +1958,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E26" s="3">
         <v>50400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>152200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>121500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>95500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>58100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-13800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-257200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>80800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>65000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>40800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>76200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>85500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>60300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>39900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>81900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>63700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>21200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>25200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>54600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E27" s="3">
         <v>50400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>152200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>121500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>95500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>58100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-13800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-257200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>80800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>65000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>40800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>76200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>85500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>60300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>39900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>81900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>63700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>21200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>25200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>54600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2123,8 +2180,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2158,8 +2218,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2176,11 +2236,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>12100</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2188,14 +2248,17 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2265,8 +2328,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2336,150 +2402,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>12400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>13200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E33" s="3">
         <v>50400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>152200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>121500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>95500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>58100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-13800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-257200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>80800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>65000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>40800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>76200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>85500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>60300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>39900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>94000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>63700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>21200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>25200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>54600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2549,155 +2624,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E35" s="3">
         <v>50400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>152200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>121500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>95500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>58100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-13800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-257200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>80800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>65000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>40800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>76200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>85500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>60300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>39900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>94000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>63700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>21200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>25200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>54600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44590</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44499</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44317</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44226</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44044</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43953</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43862</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43771</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43680</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43589</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43498</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43407</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43316</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43225</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43134</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43036</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42945</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42854</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42763</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2723,8 +2807,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2750,434 +2835,453 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>145200</v>
+      </c>
+      <c r="E41" s="3">
         <v>138800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>364800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>498200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>466000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>525000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>367000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>404700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>499300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>126100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>134600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>144200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>91900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>108200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>156300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>184300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>209900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>184100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>185500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>162800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>143900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>265300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>209600</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>83600</v>
+      </c>
+      <c r="E42" s="3">
         <v>296000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>375900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>325800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>325700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>325500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>325300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>494000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>386500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>290800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>129900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>172900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>257800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>317200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>203500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>179000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>99800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>229500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>72000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>29800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>81300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>113300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>230500</v>
+      </c>
+      <c r="E43" s="3">
         <v>286700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>228500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>155400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>149100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>146100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>124600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>107200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>106800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>119100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>112300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>98600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>73800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>93500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>84100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>74200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>72800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>78300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>77100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>80700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>79400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>86600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>682100</v>
+      </c>
+      <c r="E44" s="3">
         <v>553500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>739800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>503500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>466700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>405400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>560000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>421200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>421700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>446300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>647300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>534800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>456200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>424400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>591700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>466100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>404300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>398200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>534000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>433500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>364300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>358400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>492600</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>139200</v>
+      </c>
+      <c r="E45" s="3">
         <v>122000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>66600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>118700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>88300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>120600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>130900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>155100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>144700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>65700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>54400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>69500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>70900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>102900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>88000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>93500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>87800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>78400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>61600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>110500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>94800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>77500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>77800</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1280500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1396900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1775500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1601600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1495800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1522600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1507800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1582400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1558900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1047900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1078600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1020100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>950600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1046300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1123500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>997100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>874600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>968500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>930200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>817200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>763700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>901200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>936800</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3247,150 +3351,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1955300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1921300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1813500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1744600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1758700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1779800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1893700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1930800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1960000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2154000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2250500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2216600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2188900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>742100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>735700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>732400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>732200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>724200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>726200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>719100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>710500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>707800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>708500</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>372100</v>
+      </c>
+      <c r="E49" s="3">
         <v>374100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>69300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>70600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>69700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>70300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>50900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>51400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>52000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>53000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>55500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>56300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>57200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>58200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>59100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>60000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>60900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>61700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>62000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>62600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>63200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>64300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3460,8 +3573,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3531,79 +3647,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>93600</v>
+      </c>
+      <c r="E52" s="3">
         <v>94300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>91600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>78200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>76500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>62100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>45900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>63300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>59200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>73700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>67700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>66200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>58600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>56800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>63200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>61300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>63200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>61800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>83400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>87400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>95800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>109400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3673,79 +3795,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3701500</v>
+      </c>
+      <c r="E54" s="3">
         <v>3786600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3750000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3495000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3400700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3434800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3498200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3628000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3630100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3328700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3452300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3359200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3255400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1903400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1981500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1850700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1730900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1816300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1801800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1686300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1633200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1782700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1822500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3771,8 +3899,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3798,79 +3927,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>236400</v>
+      </c>
+      <c r="E57" s="3">
         <v>231800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>314600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>221500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>231900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>255900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>304600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>295300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>177100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>285700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>366700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>317000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>231800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>240700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>343400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>264200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>207800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>236700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>330700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>275500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>208900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>246200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>314100</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3940,180 +4073,189 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>501100</v>
+      </c>
+      <c r="E59" s="3">
         <v>611100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>555000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>547700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>512600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>602600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>589800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>545100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>485100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>466000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>443500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>446700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>418000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>302000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>263800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>243800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>227000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>248500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>222100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>196500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>211700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>247600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>248800</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>737500</v>
+      </c>
+      <c r="E60" s="3">
         <v>842900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>869600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>769200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>744500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>858500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>894300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>840400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>662200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>751800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>810200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>763600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>649800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>542600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>607100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>508000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>434800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>485200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>552800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>472000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>420600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>493800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>562900</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>405800</v>
+      </c>
+      <c r="E61" s="3">
         <v>341000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>336200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>331700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>329700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>325300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>321100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>517000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>643000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -4153,79 +4295,85 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1175200</v>
+      </c>
+      <c r="E62" s="3">
         <v>1179100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1147500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1118600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1150900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1164400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1214600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1272700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1327900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1329100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1381700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1366900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1363800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>73200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>78900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>82200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>88700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>84300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>85700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>90000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>94700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>84300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>87700</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4295,8 +4443,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4366,8 +4517,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4437,79 +4591,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2318500</v>
+      </c>
+      <c r="E66" s="3">
         <v>2363000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2353300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2219500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2225100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2348100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2430000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2630100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2633100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2080800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2191900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2130600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2013600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>615800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>686100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>590200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>523500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>569500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>638600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>562000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>515300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>578100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>650600</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4535,8 +4695,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4606,8 +4767,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4677,8 +4841,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4748,8 +4915,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4819,79 +4989,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2224100</v>
+      </c>
+      <c r="E72" s="3">
         <v>2203800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2185400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2058400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1951500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1868600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1865400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1807700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1826400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2108300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2127300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2070100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2028600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2054700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2002700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1941500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1904200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1883600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1812800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1772200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1774300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1775800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1744200</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4961,8 +5137,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5032,8 +5211,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5103,79 +5285,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1383000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1423700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1396700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1275500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1175600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1086700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1068200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>997900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>997000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1247900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1260400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1228600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1241800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1287600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1295400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1260600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1207400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1246800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1163200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1124300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1117900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1204600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1172000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5245,155 +5433,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44590</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44499</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44317</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44226</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44044</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43953</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43862</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43771</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43680</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43589</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43498</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43407</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43316</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43225</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43134</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43036</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42945</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42854</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42763</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E81" s="3">
         <v>50400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>152200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>121500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>95500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>58100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-13800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-257200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>80800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>65000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>40800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>76200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>85500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>60300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>39900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>94000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>63700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>21200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>25200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>54600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5419,79 +5616,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E83" s="3">
         <v>48200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>42100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>41500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>39300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>42500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>39800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>39900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>43400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>45000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>45600</v>
-      </c>
-      <c r="N83" s="3">
-        <v>45400</v>
       </c>
       <c r="O83" s="3">
         <v>45400</v>
       </c>
       <c r="P83" s="3">
+        <v>45400</v>
+      </c>
+      <c r="Q83" s="3">
         <v>38800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>46000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>43300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>42500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>44100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>43700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>40800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>40900</v>
-      </c>
-      <c r="X83" s="3">
-        <v>40000</v>
       </c>
       <c r="Y83" s="3">
         <v>40000</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5561,8 +5762,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5632,8 +5836,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5703,8 +5910,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5774,8 +5984,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5845,79 +6058,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-108200</v>
+      </c>
+      <c r="E89" s="3">
         <v>170000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>11800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>121500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>212900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>26000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>173500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-209900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>237200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>60600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>109900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>213100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>91200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>124400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>28000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>206300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>134900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>42500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>10700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>162700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>101500</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5943,79 +6162,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-58400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-89400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-58200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-49400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-36800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-35400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-31200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-27500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-33900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-60500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-58100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-55200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-36600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-45100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-42600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-54500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-46900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-34500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-48400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-46400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-40100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-54200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-47300</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6085,8 +6308,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6156,79 +6382,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-445800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-28200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-112200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-35800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-31300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>2300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-65800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-58200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-61200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>10400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-58500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-82600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-74600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-67200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-36600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-48900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-46500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-40100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-54200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-47300</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6254,8 +6486,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6266,16 +6499,16 @@
         <v>-30400</v>
       </c>
       <c r="F96" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="G96" s="3">
         <v>-30300</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-22900</v>
       </c>
       <c r="H96" s="3">
         <v>-22900</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-22900</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -6284,34 +6517,34 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
-        <v>-23000</v>
+        <v>0</v>
       </c>
       <c r="M96" s="3">
         <v>-23000</v>
       </c>
       <c r="N96" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-23200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-23600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-25800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-22700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-24400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-24200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-22200</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-22100</v>
       </c>
       <c r="V96" s="3">
         <v>-22100</v>
@@ -6320,13 +6553,16 @@
         <v>-22100</v>
       </c>
       <c r="X96" s="3">
-        <v>-22700</v>
+        <v>-22100</v>
       </c>
       <c r="Y96" s="3">
         <v>-22700</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>-22700</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6396,8 +6632,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6467,8 +6706,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6538,217 +6780,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-30400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-36800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-35900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-22100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-20000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-134400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>714600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-23100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-55400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-86100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-46600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-102400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-49300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-16600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-84300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-13900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-23900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-27300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-123600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-21600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-206000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-305900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-33300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>57300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-133800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>158100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-206400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>43000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>493800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>147400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-52700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-37500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-28700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>53500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-43500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>33600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-123900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>156100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>65000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-32600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-153400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>86900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>43700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>AEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,335 +665,348 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44590</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44499</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44317</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44226</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44044</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43953</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43862</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43771</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43680</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43589</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43498</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43407</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43316</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43225</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43134</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43036</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42945</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42854</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42763</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1198100</v>
+      </c>
+      <c r="E8" s="3">
         <v>1055000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1507900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1274100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1194200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1034600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1292300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1031600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>883500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>551700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1314600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1066400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1040900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>886300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1244200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1003700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>964900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>823000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1228700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>960400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>844600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>761800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1097200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>940600</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>828100</v>
+      </c>
+      <c r="E9" s="3">
         <v>667000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1019300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>709600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>691800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>598400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>852400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>616800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>618300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>523400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>906900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>659400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>658300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>561400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>813600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>604200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>611800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>518500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>803600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>585500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>551900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>484000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>708700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>562800</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>370000</v>
+      </c>
+      <c r="E10" s="3">
         <v>388000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>488600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>564500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>502400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>436200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>439900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>414800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>265200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>28300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>407700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>407100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>382600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>324900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>430600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>399500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>353100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>304500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>425100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>374900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>292700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>277800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>388500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>377800</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1020,8 +1033,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1094,8 +1108,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1168,20 +1185,23 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>11900</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1189,32 +1209,32 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>102600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>7000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>14600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>155600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>76200</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>2700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1500</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
@@ -1222,102 +1242,108 @@
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>1600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>3700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>19100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>5400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>21200</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E15" s="3">
         <v>47400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>47100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>40900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>40500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>38300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>41600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>39000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>39100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>42700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>44400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>45000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>44900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>44800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>41200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>42400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>42700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>41900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>43500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>43100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>40300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>40400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>39400</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1341,156 +1367,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1184100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1013100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1428000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1064400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1026200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>901200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1288700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>936100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>895700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>909900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1314200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>963300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>959000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>838400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1142800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>895100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>888500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>772300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1111400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>849500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>815000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>724900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1011400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>822300</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E18" s="3">
         <v>41900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>79900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>209700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>168000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>133400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>95500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-358200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>103100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>81900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>47900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>101400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>108600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>76400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>50700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>117300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>110900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>29600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>36900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>85800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1517,156 +1550,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-61600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-12400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-7600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-13200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E21" s="3">
         <v>90400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>115700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>246300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>202000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>166100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>41000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>129600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>20700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-318000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>46700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>151200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>131300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>97400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>142500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>158900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>120500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>93700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>164100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>141400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>73000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>78200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>127300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>158900</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1739,156 +1779,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="E23" s="3">
         <v>41800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>67500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>204200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>160400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>126800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>89900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-19200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-361400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>105700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>85900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>52000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>103700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>113000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>77300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>51200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>120000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>97700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>32200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>37400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>87300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E24" s="3">
         <v>10000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>17100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>52000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>38900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>31300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-5100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>31700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-5500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-104200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>24900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>20900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11300</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>27500</v>
       </c>
       <c r="R24" s="3">
         <v>27500</v>
       </c>
       <c r="S24" s="3">
+        <v>27500</v>
+      </c>
+      <c r="T24" s="3">
         <v>16900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>11300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>38100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>33900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>10900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>12100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>32600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>43100</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1961,156 +2010,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="E26" s="3">
         <v>31700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>50400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>152200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>121500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>95500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>58100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-13800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-257200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>80800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>65000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>40800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>76200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>85500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>60300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>39900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>81900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>63700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>21200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>25200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>54600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="E27" s="3">
         <v>31700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>50400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>152200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>121500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>95500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>58100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-257200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>80800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>65000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>40800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>76200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>85500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>60300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>39900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>81900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>63700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>21200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>25200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>54600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2183,8 +2241,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2221,8 +2282,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2239,11 +2300,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>12100</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2251,14 +2312,17 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2331,8 +2395,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2405,156 +2472,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>61600</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>12400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>7600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>13200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="E33" s="3">
         <v>31700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>50400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>152200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>121500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>95500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>58100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-13800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-257200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>80800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>65000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>40800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>76200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>85500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>60300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>39900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>94000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>63700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>21200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>25200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>54600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2627,161 +2703,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="E35" s="3">
         <v>31700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>50400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>152200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>121500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>95500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>58100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-13800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-257200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>80800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>65000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>40800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>76200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>85500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>60300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>39900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>94000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>63700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>21200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>25200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>54600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44590</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44499</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44317</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44226</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44044</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43953</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43862</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43771</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43680</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43589</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43498</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43407</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43316</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43225</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43134</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43036</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42945</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42854</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42763</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2808,8 +2893,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2836,452 +2922,471 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>98100</v>
+      </c>
+      <c r="E41" s="3">
         <v>145200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>138800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>364800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>498200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>466000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>525000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>367000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>404700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>499300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>126100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>134600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>144200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>91900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>108200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>156300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>184300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>209900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>184100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>185500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>162800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>143900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>265300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>209600</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>100</v>
+      </c>
+      <c r="E42" s="3">
         <v>83600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>296000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>375900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>325800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>325700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>325500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>325300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>494000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>386500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>290800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>129900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>172900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>257800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>317200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>203500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>179000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>99800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>229500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>72000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>29800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>81300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>113300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>220800</v>
+      </c>
+      <c r="E43" s="3">
         <v>230500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>286700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>228500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>155400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>149100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>146100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>124600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>107200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>106800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>119100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>112300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>98600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>73800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>93500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>84100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>74200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>72800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>78300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>77100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>80700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>79400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>86600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>687000</v>
+      </c>
+      <c r="E44" s="3">
         <v>682100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>553500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>739800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>503500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>466700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>405400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>560000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>421200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>421700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>446300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>647300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>534800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>456200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>424400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>591700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>466100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>404300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>398200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>534000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>433500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>364300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>358400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>492600</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>171300</v>
+      </c>
+      <c r="E45" s="3">
         <v>139200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>122000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>66600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>118700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>88300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>120600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>130900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>155100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>144700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>65700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>54400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>69500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>70900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>102900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>88000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>93500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>87800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>78400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>61600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>110500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>94800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>77500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>77800</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1177400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1280500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1396900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1775500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1601600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1495800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1522600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1507800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1582400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1558900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1047900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1078600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1020100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>950600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1046300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1123500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>997100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>874600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>968500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>930200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>817200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>763700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>901200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>936800</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3354,156 +3459,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1986300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1955300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1921300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1813500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1744600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1758700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1779800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1893700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1930800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1960000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2154000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2250500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2216600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2188900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>742100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>735700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>732400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>732200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>724200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>726200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>719100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>710500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>707800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>708500</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>370100</v>
+      </c>
+      <c r="E49" s="3">
         <v>372100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>374100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>69300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>70600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>69700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>70300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>50900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>51400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>52000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>53000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>55500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>56300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>57200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>58200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>59100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>60000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>60900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>61700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>62000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>62600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>63200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>64300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3576,8 +3690,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3650,82 +3767,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>95500</v>
+      </c>
+      <c r="E52" s="3">
         <v>93600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>94300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>91600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>78200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>76500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>62100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>45900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>63300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>59200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>73700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>67700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>66200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>58600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>56800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>63200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>61300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>63200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>61800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>83400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>87400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>95800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>109400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3798,82 +3921,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3629200</v>
+      </c>
+      <c r="E54" s="3">
         <v>3701500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3786600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3750000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3495000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3400700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3434800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3498200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3628000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3630100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3328700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3452300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3359200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3255400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1903400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1981500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1850700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1730900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1816300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1801800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1686300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1633200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1782700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1822500</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3900,8 +4029,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3928,82 +4058,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>198600</v>
+      </c>
+      <c r="E57" s="3">
         <v>236400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>231800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>314600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>221500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>231900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>255900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>304600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>295300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>177100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>285700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>366700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>317000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>231800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>240700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>343400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>264200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>207800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>236700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>330700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>275500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>208900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>246200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>314100</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4076,189 +4210,198 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>519400</v>
+      </c>
+      <c r="E59" s="3">
         <v>501100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>611100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>555000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>547700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>512600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>602600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>589800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>545100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>485100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>466000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>443500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>446700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>418000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>302000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>263800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>243800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>227000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>248500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>222100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>196500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>211700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>247600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>248800</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>718100</v>
+      </c>
+      <c r="E60" s="3">
         <v>737500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>842900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>869600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>769200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>744500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>858500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>894300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>840400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>662200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>751800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>810200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>763600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>649800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>542600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>607100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>508000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>434800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>485200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>552800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>472000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>420600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>493800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>562900</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>376500</v>
+      </c>
+      <c r="E61" s="3">
         <v>405800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>341000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>336200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>331700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>329700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>325300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>321100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>517000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>643000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4298,82 +4441,88 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1161700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1175200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1179100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1147500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1118600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1150900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1164400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1214600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1272700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1327900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1329100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1381700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1366900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1363800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>73200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>78900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>82200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>88700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>84300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>85700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>90000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>94700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>84300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>87700</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4446,8 +4595,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4520,8 +4672,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4594,82 +4749,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2256300</v>
+      </c>
+      <c r="E66" s="3">
         <v>2318500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2363000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2353300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2219500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2225100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2348100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2430000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2630100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2633100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2080800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2191900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2130600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2013600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>615800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>686100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>590200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>523500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>569500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>638600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>562000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>515300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>578100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>650600</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4696,8 +4857,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4770,8 +4932,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4844,8 +5009,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4918,8 +5086,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4992,82 +5163,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2224100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2203800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2185400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2058400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1951500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1868600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1865400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1807700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1826400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2108300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2127300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2070100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2028600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2054700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2002700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1941500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1904200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1883600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1812800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1772200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1774300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1775800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1744200</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5140,8 +5317,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5214,8 +5394,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5288,82 +5471,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1372900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1383000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1423700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1396700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1275500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1175600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1086700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1068200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>997900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>997000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1247900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1260400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1228600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1241800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1287600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1295400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1260600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1207400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1246800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1163200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1124300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1117900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1204600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1172000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5436,161 +5625,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44590</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44499</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44317</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44226</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44044</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43953</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43862</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43771</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43680</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43589</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43498</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43407</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43316</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43225</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43134</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43036</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42945</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42854</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42763</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="E81" s="3">
         <v>31700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>50400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>152200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>121500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>95500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>58100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-13800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-257200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>80800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>65000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>40800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>76200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>85500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>60300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>39900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>94000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>63700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>21200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>25200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>54600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5617,82 +5815,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>49400</v>
+      </c>
+      <c r="E83" s="3">
         <v>48600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>48200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>42100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>41500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>39300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>42500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>39800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>39900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>43400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>45000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>45600</v>
-      </c>
-      <c r="O83" s="3">
-        <v>45400</v>
       </c>
       <c r="P83" s="3">
         <v>45400</v>
       </c>
       <c r="Q83" s="3">
+        <v>45400</v>
+      </c>
+      <c r="R83" s="3">
         <v>38800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>46000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>43300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>42500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>44100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>43700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>40800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>40900</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>40000</v>
       </c>
       <c r="Z83" s="3">
         <v>40000</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5765,8 +5967,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5839,8 +6044,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5913,8 +6121,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5987,8 +6198,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6061,82 +6275,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-108200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>170000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>11800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>121500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>212900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>26000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>173500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-209900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>237200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>60600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>109900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>213100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>91200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>124400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>28000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>206300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>134900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>42500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>10700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>162700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>101500</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6163,82 +6383,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-69500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-58400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-89400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-58200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-49400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-36800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-35400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-31200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-27500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-33900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-60500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-58100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-55200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-36600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-45100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-42600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-54500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-46900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-34500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-48400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-46400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-40100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-54200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-47300</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6311,8 +6535,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6385,82 +6612,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-69700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-58700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-445800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-28200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-112200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-35800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-31300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-65800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-58200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-61200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>10400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-58500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-82600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-74600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-67200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-36600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-48900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-46500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-40100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-54200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-47300</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6487,13 +6720,14 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-30400</v>
+        <v>-34400</v>
       </c>
       <c r="E96" s="3">
         <v>-30400</v>
@@ -6502,16 +6736,16 @@
         <v>-30400</v>
       </c>
       <c r="G96" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="H96" s="3">
         <v>-30300</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-22900</v>
       </c>
       <c r="I96" s="3">
         <v>-22900</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-22900</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -6520,34 +6754,34 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
-        <v>-23000</v>
+        <v>0</v>
       </c>
       <c r="N96" s="3">
         <v>-23000</v>
       </c>
       <c r="O96" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-23200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-23600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-25800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-22700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-24400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-24200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-22200</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-22100</v>
       </c>
       <c r="W96" s="3">
         <v>-22100</v>
@@ -6556,13 +6790,16 @@
         <v>-22100</v>
       </c>
       <c r="Y96" s="3">
-        <v>-22700</v>
+        <v>-22100</v>
       </c>
       <c r="Z96" s="3">
         <v>-22700</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>-22700</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6635,8 +6872,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6709,8 +6949,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6783,226 +7026,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-63700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-38400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-30400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-36800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-35900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-22100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-20000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-200300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-134400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>714600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-23100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-55400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-86100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-46600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-102400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-49300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-16600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-84300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-13900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-23900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-27300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-123600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-21600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-130600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-206000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-305900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-33300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>57300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-133800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>158100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-206400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>43000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>493800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>147400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-52700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-37500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-28700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>53500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-43500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>33600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-123900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>156100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>65000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-32600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-153400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>86900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>43700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>AEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,348 +665,361 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44863</v>
+      </c>
+      <c r="E7" s="2">
         <v>44772</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44590</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44499</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44317</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44226</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44044</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43953</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43862</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43771</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43680</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43589</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43498</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43407</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43316</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43225</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43134</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43036</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42945</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42854</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42763</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1240600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1198100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1055000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1507900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1274100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1194200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1034600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1292300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1031600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>883500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>551700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1314600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1066400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1040900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>886300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1244200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1003700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>964900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>823000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1228700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>960400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>844600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>761800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1097200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>940600</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>760800</v>
+      </c>
+      <c r="E9" s="3">
         <v>828100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>667000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1019300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>709600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>691800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>598400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>852400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>616800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>618300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>523400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>906900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>659400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>658300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>561400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>813600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>604200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>611800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>518500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>803600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>585500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>551900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>484000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>708700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>562800</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>479800</v>
+      </c>
+      <c r="E10" s="3">
         <v>370000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>388000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>488600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>564500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>502400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>436200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>439900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>414800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>265200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>28300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>407700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>407100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>382600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>324900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>430600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>399500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>353100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>304500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>425100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>374900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>292700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>277800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>388500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>377800</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1034,8 +1047,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1111,8 +1125,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1188,8 +1205,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1199,12 +1219,12 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>11900</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -1212,32 +1232,32 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>102600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>14600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>155600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>76200</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>2700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1500</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
@@ -1245,105 +1265,111 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>1600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>3700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>19100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>5400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>21200</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>51100</v>
+      </c>
+      <c r="E15" s="3">
         <v>48200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>47400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>47100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>40900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>40500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>38300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>41600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>39000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>39100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>42700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>44400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>45000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>44900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>44800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>41200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>42400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>42700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>41900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>43500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>43100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>40300</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>40400</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>39400</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1368,162 +1394,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1123000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1184100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1013100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1428000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1064400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1026200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>901200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1288700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>936100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>895700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>909900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1314200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>963300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>959000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>838400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1142800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>895100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>888500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>772300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1111400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>849500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>815000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>724900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1011400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>822300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>117600</v>
+      </c>
+      <c r="E18" s="3">
         <v>14000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>41900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>79900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>209700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>168000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>133400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>95500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-12200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-358200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>103100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>81900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>47900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>101400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>108600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>76400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>50700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>117300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>110900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>29600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>36900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>85800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1551,162 +1584,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-61600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-12400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-7600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-13200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>165300</v>
+      </c>
+      <c r="E21" s="3">
         <v>1800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>90400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>115700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>246300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>202000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>166100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>41000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>129600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>20700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-318000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>46700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>151200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>131300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>97400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>142500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>158900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>120500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>93700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>164100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>141400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>73000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>78200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>127300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>158900</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1782,162 +1822,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>112900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-47600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>41800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>67500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>204200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>160400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>126800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>89900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-19200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-361400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>105700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>85900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>52000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>103700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>113000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>77300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>51200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>120000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>97700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>32200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>37400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>87300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-5200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>10000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>17100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>52000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>38900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>31300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-5100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>31700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-5500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-104200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-3100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>24900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>20900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11300</v>
-      </c>
-      <c r="R24" s="3">
-        <v>27500</v>
       </c>
       <c r="S24" s="3">
         <v>27500</v>
       </c>
       <c r="T24" s="3">
+        <v>27500</v>
+      </c>
+      <c r="U24" s="3">
         <v>16900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>11300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>38100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>33900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>10900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>12100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>32600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>43100</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2013,162 +2062,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>81300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-42500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>31700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>50400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>152200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>121500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>95500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>58100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-13800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-257200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>80800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>65000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>40800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>76200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>85500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>60300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>39900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>81900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>63700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>21200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>25200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>54600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>81300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-42500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>31700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>50400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>152200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>121500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>95500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>58100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-13800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-257200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>80800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>65000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>40800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>76200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>85500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>60300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>39900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>81900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>63700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>21200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>25200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>54600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2244,8 +2302,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2285,8 +2346,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2303,11 +2364,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>12100</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2315,14 +2376,17 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2398,8 +2462,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2475,162 +2542,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E32" s="3">
         <v>61600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>12400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>7600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>13200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>81300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-42500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>31700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>50400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>152200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>121500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>95500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>58100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-13800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-257200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>80800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>65000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>40800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>76200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>85500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>60300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>39900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>94000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>63700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>21200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>25200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>54600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2706,167 +2782,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>81300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-42500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>31700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>50400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>152200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>121500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>95500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>58100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-13800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-257200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>80800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>65000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>40800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>76200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>85500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>60300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>39900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>94000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>63700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>21200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>25200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>54600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44863</v>
+      </c>
+      <c r="E38" s="2">
         <v>44772</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44590</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44499</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44317</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44226</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44044</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43953</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43862</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43771</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43680</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43589</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43498</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43407</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43316</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43225</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43134</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43036</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42945</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42854</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42763</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2894,8 +2979,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2923,85 +3009,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E41" s="3">
         <v>98100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>145200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>138800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>364800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>498200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>466000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>525000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>367000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>404700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>499300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>126100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>134600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>144200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>91900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>108200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>156300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>184300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>209900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>184100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>185500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>162800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>143900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>265300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>209600</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3009,384 +3099,399 @@
         <v>100</v>
       </c>
       <c r="E42" s="3">
+        <v>100</v>
+      </c>
+      <c r="F42" s="3">
         <v>83600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>296000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>375900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>325800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>325700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>325500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>325300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>494000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>386500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>290800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>129900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>172900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>257800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>317200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>203500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>179000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>99800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>229500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>72000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>29800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>81300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>113300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>250900</v>
+      </c>
+      <c r="E43" s="3">
         <v>220800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>230500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>286700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>228500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>155400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>149100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>146100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>124600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>107200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>106800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>119100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>112300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>98600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>73800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>93500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>84100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>74200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>72800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>78300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>77100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>80700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>79400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>86600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>797700</v>
+      </c>
+      <c r="E44" s="3">
         <v>687000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>682100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>553500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>739800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>503500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>466700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>405400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>560000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>421200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>421700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>446300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>647300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>534800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>456200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>424400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>591700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>466100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>404300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>398200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>534000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>433500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>364300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>358400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>492600</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>146400</v>
+      </c>
+      <c r="E45" s="3">
         <v>171300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>139200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>122000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>66600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>118700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>88300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>120600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>130900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>155100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>144700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>65700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>54400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>69500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>70900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>102900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>88000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>93500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>87800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>78400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>61600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>110500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>94800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>77500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>77800</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1277100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1177400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1280500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1396900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1775500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1601600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1495800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1522600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1507800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1582400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1558900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1047900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1078600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1020100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>950600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1046300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1123500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>997100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>874600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>968500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>930200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>817200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>763700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>901200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>936800</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3462,162 +3567,171 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1938600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1986300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1955300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1921300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1813500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1744600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1758700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1779800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1893700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1930800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1960000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2154000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2250500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2216600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2188900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>742100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>735700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>732400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>732200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>724200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>726200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>719100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>710500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>707800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>708500</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>367700</v>
+      </c>
+      <c r="E49" s="3">
         <v>370100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>372100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>374100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>69300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>70600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>69700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>70300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>50900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>51400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>52000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>53000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>55500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>56300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>57200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>58200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>59100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>60000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>60900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>61700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>62000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>62600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>63200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>64300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3693,8 +3807,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3770,85 +3887,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E52" s="3">
         <v>95500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>93600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>94300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>91600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>78200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>76500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>62100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>45900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>63300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>59200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>73700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>67700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>66200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>58600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>56800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>63200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>61300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>63200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>61800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>83400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>87400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>95800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>109400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3924,85 +4047,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3672500</v>
+      </c>
+      <c r="E54" s="3">
         <v>3629200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3701500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3786600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3750000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3495000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3400700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3434800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3498200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3628000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3630100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3328700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3452300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3359200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3255400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1903400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1981500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1850700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1730900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1816300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1801800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1686300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1633200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1782700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1822500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4030,8 +4159,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4059,85 +4189,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>188400</v>
+      </c>
+      <c r="E57" s="3">
         <v>198600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>236400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>231800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>314600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>221500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>231900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>255900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>304600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>295300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>177100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>285700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>366700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>317000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>231800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>240700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>343400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>264200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>207800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>236700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>330700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>275500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>208900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>246200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>314100</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4213,198 +4347,207 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>497000</v>
+      </c>
+      <c r="E59" s="3">
         <v>519400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>501100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>611100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>555000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>547700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>512600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>602600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>589800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>545100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>485100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>466000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>443500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>446700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>418000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>302000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>263800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>243800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>227000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>248500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>222100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>196500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>211700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>247600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>248800</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>685400</v>
+      </c>
+      <c r="E60" s="3">
         <v>718100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>737500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>842900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>869600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>769200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>744500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>858500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>894300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>840400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>662200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>751800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>810200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>763600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>649800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>542600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>607100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>508000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>434800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>485200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>552800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>472000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>420600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>493800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>562900</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>411900</v>
+      </c>
+      <c r="E61" s="3">
         <v>376500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>405800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>341000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>336200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>331700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>329700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>325300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>321100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>517000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>643000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -4444,85 +4587,91 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1112600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1161700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1175200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1179100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1147500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1118600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1150900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1164400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1214600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1272700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1327900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1329100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1381700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1366900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1363800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>73200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>78900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>82200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>88700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>84300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>85700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>90000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>94700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>84300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>87700</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4598,8 +4747,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4675,8 +4827,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4752,85 +4907,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2209900</v>
+      </c>
+      <c r="E66" s="3">
         <v>2256300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2318500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2363000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2353300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2219500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2225100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2348100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2430000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2630100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2633100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2080800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2191900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2130600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2013600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>615800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>686100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>590200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>523500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>569500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>638600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>562000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>515300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>578100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>650600</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4858,8 +5019,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4935,8 +5097,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5012,8 +5177,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5089,8 +5257,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5166,85 +5337,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2080900</v>
+      </c>
+      <c r="E72" s="3">
         <v>2000000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2224100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2203800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2185400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2058400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1951500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1868600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1865400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1807700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1826400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2108300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2127300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2070100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2028600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2054700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2002700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1941500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1904200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1883600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1812800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1772200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1774300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1775800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1744200</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5320,8 +5497,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5397,8 +5577,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5474,85 +5657,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1462500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1372900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1383000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1423700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1396700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1275500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1175600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1086700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1068200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>997900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>997000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1247900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1260400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1228600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1241800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1287600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1295400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1260600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1207400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1246800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1163200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1124300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1117900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1204600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1172000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5628,167 +5817,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44863</v>
+      </c>
+      <c r="E80" s="2">
         <v>44772</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44590</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44499</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44317</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44226</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44044</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43953</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43862</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43771</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43680</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43589</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43498</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43407</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43316</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43225</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43134</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43036</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42945</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42854</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42763</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>81300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-42500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>31700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>50400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>152200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>121500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>95500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>58100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-13800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-257200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>80800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>65000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>40800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>76200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>85500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>60300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>39900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>94000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>63700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>21200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>25200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>54600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5816,85 +6014,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E83" s="3">
         <v>49400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>48600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>48200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>42100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>41500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>39300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>42500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>39800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>39900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>43400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>45000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>45600</v>
-      </c>
-      <c r="P83" s="3">
-        <v>45400</v>
       </c>
       <c r="Q83" s="3">
         <v>45400</v>
       </c>
       <c r="R83" s="3">
+        <v>45400</v>
+      </c>
+      <c r="S83" s="3">
         <v>38800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>46000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>43300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>42500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>44100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>43700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>40800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>40900</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>40000</v>
       </c>
       <c r="AA83" s="3">
         <v>40000</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5970,8 +6172,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6047,8 +6252,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6124,8 +6332,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6201,8 +6412,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6278,85 +6492,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E89" s="3">
         <v>3000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-108200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>170000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>11800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>121500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>212900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>26000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>173500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-209900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>237200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>60600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>109900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>213100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>91200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>124400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>28000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>206300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>134900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>42500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>10700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>162700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>101500</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6384,85 +6604,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-71500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-69500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-58400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-89400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-58200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-49400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-36800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-35400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-31200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-27500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-33900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-60500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-58100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-55200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-36600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-45100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-42600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-54500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-46900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-34500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-48400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-46400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-40100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-54200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-47300</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6538,8 +6762,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6615,85 +6842,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-71700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-69700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-58700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-445800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-28200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-112200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-35800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-31300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-65800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-58200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-61200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>10400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-58500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-82600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-74600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-67200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-36600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-48900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-46500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-40100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-54200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-47300</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6721,16 +6954,17 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-34400</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-30400</v>
       </c>
       <c r="F96" s="3">
         <v>-30400</v>
@@ -6739,16 +6973,16 @@
         <v>-30400</v>
       </c>
       <c r="H96" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="I96" s="3">
         <v>-30300</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-22900</v>
       </c>
       <c r="J96" s="3">
         <v>-22900</v>
       </c>
       <c r="K96" s="3">
-        <v>0</v>
+        <v>-22900</v>
       </c>
       <c r="L96" s="3">
         <v>0</v>
@@ -6757,34 +6991,34 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
-        <v>-23000</v>
+        <v>0</v>
       </c>
       <c r="O96" s="3">
         <v>-23000</v>
       </c>
       <c r="P96" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-23200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-23600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-25800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-22700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-24400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-24200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-22200</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-22100</v>
       </c>
       <c r="X96" s="3">
         <v>-22100</v>
@@ -6793,13 +7027,16 @@
         <v>-22100</v>
       </c>
       <c r="Z96" s="3">
-        <v>-22700</v>
+        <v>-22100</v>
       </c>
       <c r="AA96" s="3">
         <v>-22700</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>-22700</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6875,8 +7112,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6952,8 +7192,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7029,235 +7272,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-63700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-38400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-30400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-36800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-35900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-22100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-20000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-200300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-134400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>714600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-23100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-55400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-86100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-46600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-102400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-49300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-16600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-84300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-13900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-23900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-27300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-123600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-21600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-130600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-206000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-305900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-33300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>57300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-133800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>158100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-206400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>43000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>493800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>147400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-52700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-37500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-28700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>53500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-43500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>33600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-123900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>156100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>65000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-32600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-153400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>86900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>43700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>AEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,361 +665,374 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E7" s="2">
         <v>44863</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44772</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44590</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44499</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44317</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44226</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44044</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43953</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43862</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43771</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43680</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43589</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43498</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43407</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43316</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43225</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43134</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43036</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42945</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42854</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42763</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1496100</v>
+      </c>
+      <c r="E8" s="3">
         <v>1240600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1198100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1055000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1507900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1274100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1194200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1034600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1292300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1031600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>883500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>551700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1314600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1066400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1040900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>886300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1244200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1003700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>964900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>823000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1228700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>960400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>844600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>761800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1097200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>940600</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>988700</v>
+      </c>
+      <c r="E9" s="3">
         <v>760800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>828100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>667000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1019300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>709600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>691800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>598400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>852400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>616800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>618300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>523400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>906900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>659400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>658300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>561400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>813600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>604200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>611800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>518500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>803600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>585500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>551900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>484000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>708700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>562800</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>507400</v>
+      </c>
+      <c r="E10" s="3">
         <v>479800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>370000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>388000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>488600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>564500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>502400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>436200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>439900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>414800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>265200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>28300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>407700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>407100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>382600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>324900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>430600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>399500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>353100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>304500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>425100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>374900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>292700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>277800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>388500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>377800</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1048,8 +1061,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1128,8 +1142,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1208,13 +1225,16 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>22200</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1222,12 +1242,12 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>11900</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -1235,32 +1255,32 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>102600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>14600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>155600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>76200</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>2700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1500</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
@@ -1268,108 +1288,114 @@
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>1600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>3700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>19100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>5400</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>21200</v>
       </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>60200</v>
+      </c>
+      <c r="E15" s="3">
         <v>51100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>48200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>47400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>47100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>40900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>40500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>38300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>41600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>39000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>39100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>42700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>44400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>45000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>44900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>44800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>41200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>42400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>42700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>41900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>43500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>43100</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>40300</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>40400</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>39400</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1395,168 +1421,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1422500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1123000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1184100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1013100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1428000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1064400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1026200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>901200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1288700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>936100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>895700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>909900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1314200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>963300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>959000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>838400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1142800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>895100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>888500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>772300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1111400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>849500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>815000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>724900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1011400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>822300</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>73600</v>
+      </c>
+      <c r="E18" s="3">
         <v>117600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>14000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>41900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>79900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>209700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>168000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>133400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>95500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-12200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-358200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>103100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>81900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>47900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>101400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>108600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>76400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>50700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>117300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>110900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>29600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>36900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>85800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1585,168 +1618,175 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-61600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-12400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-13200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>1400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>133500</v>
+      </c>
+      <c r="E21" s="3">
         <v>165300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>90400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>115700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>246300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>202000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>166100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>41000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>129600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>20700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-318000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>46700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>151200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>131300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>97400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>142500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>158900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>120500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>93700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>164100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>141400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>73000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>78200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>127300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>158900</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1825,168 +1865,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E23" s="3">
         <v>112900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-47600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>41800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>67500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>204200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>160400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>126800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>89900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-19200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-361400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>105700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>85900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>52000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>103700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>113000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>77300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>51200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>120000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>97700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>32200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>37400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>87300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E24" s="3">
         <v>31600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-5200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>10000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>17100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>52000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>38900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>31300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-5100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>31700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-5500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-104200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-3100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>24900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>20900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11300</v>
-      </c>
-      <c r="S24" s="3">
-        <v>27500</v>
       </c>
       <c r="T24" s="3">
         <v>27500</v>
       </c>
       <c r="U24" s="3">
+        <v>27500</v>
+      </c>
+      <c r="V24" s="3">
         <v>16900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>11300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>38100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>33900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>10900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>12100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>32600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>43100</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2065,168 +2114,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E26" s="3">
         <v>81300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-42500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>31700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>50400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>152200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>121500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>95500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>58100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-13800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-257200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>80800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>65000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>40800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>76200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>85500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>60300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>39900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>81900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>63700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>21200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>25200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>54600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E27" s="3">
         <v>81300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-42500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>31700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>50400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>152200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>121500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>95500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>58100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-13800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-257200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>80800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>65000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>40800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>76200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>85500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>60300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>39900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>81900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>63700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>21200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>25200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>54600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2305,8 +2363,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2349,8 +2410,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2367,11 +2428,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
         <v>12100</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2379,14 +2440,17 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2465,8 +2529,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2545,168 +2612,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E32" s="3">
         <v>4700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>61600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>12400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>13200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-1400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E33" s="3">
         <v>81300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-42500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>31700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>50400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>152200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>121500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>95500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>58100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-13800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-257200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>80800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>65000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>40800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>76200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>85500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>60300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>39900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>94000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>63700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>21200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>25200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>54600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2785,173 +2861,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E35" s="3">
         <v>81300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-42500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>31700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>50400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>152200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>121500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>95500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>58100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-13800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-257200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>80800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>65000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>40800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>76200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>85500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>60300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>39900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>94000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>63700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>21200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>25200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>54600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E38" s="2">
         <v>44863</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44772</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44590</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44499</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44317</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44226</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44044</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43953</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43862</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43771</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43680</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43589</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43498</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43407</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43316</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43225</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43134</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43036</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42945</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42854</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42763</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2980,8 +3065,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3010,488 +3096,507 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E41" s="3">
         <v>82000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>98100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>145200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>138800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>364800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>498200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>466000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>525000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>367000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>404700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>499300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>126100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>134600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>144200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>91900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>108200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>156300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>184300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>209900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>184100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>185500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>162800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>143900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>265300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>209600</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>100</v>
+        <v>85200</v>
       </c>
       <c r="E42" s="3">
         <v>100</v>
       </c>
       <c r="F42" s="3">
+        <v>100</v>
+      </c>
+      <c r="G42" s="3">
         <v>83600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>296000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>375900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>325800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>325700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>325500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>325300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>494000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>386500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>290800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>129900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>172900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>257800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>317200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>203500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>179000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>99800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>229500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>72000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>29800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>81300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>113300</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>242400</v>
+      </c>
+      <c r="E43" s="3">
         <v>250900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>220800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>230500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>286700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>228500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>155400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>149100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>146100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>124600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>107200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>106800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>119100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>112300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>98600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>73800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>93500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>84100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>74200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>72800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>78300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>77100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>80700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>79400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>86600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>585100</v>
+      </c>
+      <c r="E44" s="3">
         <v>797700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>687000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>682100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>553500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>739800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>503500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>466700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>405400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>560000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>421200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>421700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>446300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>647300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>534800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>456200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>424400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>591700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>466100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>404300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>398200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>534000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>433500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>364300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>358400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>492600</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>102600</v>
+      </c>
+      <c r="E45" s="3">
         <v>146400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>171300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>139200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>122000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>66600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>118700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>88300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>120600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>130900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>155100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>144700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>65700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>54400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>69500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>70900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>102900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>88000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>93500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>87800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>78400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>61600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>110500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>94800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>77500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>77800</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1100200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1277100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1177400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1280500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1396900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1775500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1601600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1495800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1522600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1507800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1582400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1558900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1047900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1078600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1020100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>950600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1046300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1123500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>997100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>874600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>968500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>930200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>817200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>763700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>901200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>936800</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3570,168 +3675,177 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1868500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1938600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1986300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1955300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1921300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1813500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1744600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1758700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1779800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1893700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1930800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1960000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2154000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2250500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2216600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2188900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>742100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>735700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>732400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>732200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>724200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>726200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>719100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>710500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>707800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>708500</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>359500</v>
+      </c>
+      <c r="E49" s="3">
         <v>367700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>370100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>372100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>374100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>69300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>70600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>69700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>70300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>50900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>51400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>52000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>53000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>55500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>56300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>57200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>58200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>59100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>60000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>60900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>61700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>62000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>62600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>63200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>64300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3810,8 +3924,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3890,88 +4007,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>92700</v>
+      </c>
+      <c r="E52" s="3">
         <v>89000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>95500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>93600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>94300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>91600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>78200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>76500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>62100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>45900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>63300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>59200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>73700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>67700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>66200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>58600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>56800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>63200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>61300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>63200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>61800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>83400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>87400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>95800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>109400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4050,88 +4173,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3421000</v>
+      </c>
+      <c r="E54" s="3">
         <v>3672500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3629200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3701500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3786600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3750000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3495000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3400700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3434800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3498200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3628000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3630100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3328700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3452300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3359200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3255400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1903400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1981500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1850700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1730900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1816300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1801800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1686300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1633200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1782700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1822500</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4160,8 +4289,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4190,88 +4320,92 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>234300</v>
+      </c>
+      <c r="E57" s="3">
         <v>188400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>198600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>236400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>231800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>314600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>221500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>231900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>255900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>304600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>295300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>177100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>285700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>366700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>317000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>231800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>240700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>343400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>264200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>207800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>236700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>330700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>275500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>208900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>246200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>314100</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4350,207 +4484,216 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>534600</v>
+      </c>
+      <c r="E59" s="3">
         <v>497000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>519400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>501100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>611100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>555000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>547700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>512600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>602600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>589800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>545100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>485100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>466000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>443500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>446700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>418000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>302000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>263800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>243800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>227000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>248500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>222100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>196500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>211700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>247600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>248800</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>768900</v>
+      </c>
+      <c r="E60" s="3">
         <v>685400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>718100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>737500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>842900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>869600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>769200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>744500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>858500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>894300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>840400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>662200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>751800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>810200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>763600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>649800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>542600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>607100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>508000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>434800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>485200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>552800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>472000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>420600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>493800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>562900</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E61" s="3">
         <v>411900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>376500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>405800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>341000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>336200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>331700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>329700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>325300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>321100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>517000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>643000</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4590,88 +4733,94 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1043900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1112600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1161700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1175200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1179100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1147500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1118600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1150900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1164400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1214600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1272700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1327900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1329100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1381700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1366900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1363800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>73200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>78900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>82200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>88700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>84300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>85700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>90000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>94700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>84300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>87700</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4750,8 +4899,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4830,8 +4982,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4910,88 +5065,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1821800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2209900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2256300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2318500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2363000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2353300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2219500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2225100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2348100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2430000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2630100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2633100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2080800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2191900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2130600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2013600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>615800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>686100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>590200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>523500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>569500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>638600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>562000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>515300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>578100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>650600</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5020,8 +5181,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5100,8 +5262,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5180,8 +5345,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5260,8 +5428,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5340,88 +5511,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2137100</v>
+      </c>
+      <c r="E72" s="3">
         <v>2080900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2000000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2224100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2203800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2185400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2058400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1951500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1868600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1865400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1807700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1826400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2108300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2127300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2070100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2028600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2054700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2002700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1941500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1904200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1883600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1812800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1772200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1774300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1775800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1744200</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5500,8 +5677,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5580,8 +5760,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5660,88 +5843,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1599200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1462500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1372900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1383000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1423700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1396700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1275500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1175600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1086700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1068200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>997900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>997000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1247900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1260400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1228600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1241800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1287600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1295400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1260600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1207400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1246800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1163200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1124300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1117900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1204600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1172000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5820,173 +6009,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E80" s="2">
         <v>44863</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44772</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44590</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44499</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44317</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44226</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44044</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43953</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43862</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43771</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43680</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43589</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43498</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43407</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43316</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43225</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43134</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43036</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42945</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42854</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42763</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E81" s="3">
         <v>81300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-42500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>31700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>50400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>152200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>121500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>95500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>58100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-13800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-257200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>80800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>65000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>40800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>76200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>85500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>60300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>39900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>94000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>63700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>21200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>25200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>54600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6015,88 +6213,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E83" s="3">
         <v>52400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>49400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>48600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>48200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>42100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>41500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>39300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>42500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>39800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>39900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>43400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>45000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>45600</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>45400</v>
       </c>
       <c r="R83" s="3">
         <v>45400</v>
       </c>
       <c r="S83" s="3">
+        <v>45400</v>
+      </c>
+      <c r="T83" s="3">
         <v>38800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>46000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>43300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>42500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>44100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>43700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>40800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>40900</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>40000</v>
       </c>
       <c r="AB83" s="3">
         <v>40000</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6175,8 +6377,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6255,8 +6460,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6335,8 +6543,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6415,8 +6626,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6495,88 +6709,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>493000</v>
+      </c>
+      <c r="E89" s="3">
         <v>18600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-108200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>170000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>11800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>121500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>212900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>26000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>173500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-209900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>237200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>60600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>109900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>7700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>213100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>91200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>124400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>28000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>206300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>134900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>42500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>10700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>162700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>101500</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6605,88 +6825,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-71500</v>
+        <v>-61300</v>
       </c>
       <c r="E91" s="3">
-        <v>-69500</v>
+        <v>-71700</v>
       </c>
       <c r="F91" s="3">
+        <v>-69700</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-87700</v>
+      </c>
+      <c r="I91" s="3">
         <v>-58400</v>
       </c>
-      <c r="G91" s="3">
-        <v>-89400</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-58200</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-49400</v>
-      </c>
       <c r="J91" s="3">
+        <v>-53200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-36800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-35400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-31200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-27500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-33900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-60500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-58100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-55200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-36600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-45100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-42600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-54500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-46900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-34500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-48400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-46400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-40100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-54200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-47300</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6765,8 +6989,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6845,88 +7072,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-61300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-71700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-69700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-58700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-445800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-28200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-112200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-35800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-31300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-65800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-58200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-61200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>10400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-58500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-82600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-74600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-67200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-36600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-48900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-46500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-40100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-54200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-47300</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6955,8 +7188,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6964,10 +7198,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-34400</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-30400</v>
       </c>
       <c r="G96" s="3">
         <v>-30400</v>
@@ -6976,16 +7210,16 @@
         <v>-30400</v>
       </c>
       <c r="I96" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="J96" s="3">
         <v>-30300</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-22900</v>
       </c>
       <c r="K96" s="3">
         <v>-22900</v>
       </c>
       <c r="L96" s="3">
-        <v>0</v>
+        <v>-22900</v>
       </c>
       <c r="M96" s="3">
         <v>0</v>
@@ -6994,34 +7228,34 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
-        <v>-23000</v>
+        <v>0</v>
       </c>
       <c r="P96" s="3">
         <v>-23000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-23200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-23600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-25800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-22700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-24400</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-24200</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-22200</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-22100</v>
       </c>
       <c r="Y96" s="3">
         <v>-22100</v>
@@ -7030,13 +7264,16 @@
         <v>-22100</v>
       </c>
       <c r="AA96" s="3">
-        <v>-22700</v>
+        <v>-22100</v>
       </c>
       <c r="AB96" s="3">
         <v>-22700</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>-22700</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7115,8 +7352,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7195,8 +7435,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7275,244 +7518,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-343700</v>
+      </c>
+      <c r="E100" s="3">
         <v>37900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-63700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-38400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-30400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-36800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-35900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-22100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-20000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-200300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-134400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>714600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-23100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-55400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-86100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-46600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-102400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-49300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-16600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-84300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-13900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-23900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-27300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-123600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-21600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-900</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>400</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>2900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-400</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>88100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-16100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-130600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-206000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-305900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-33300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>57300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-133800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>158100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-206400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>43000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>493800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>147400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-52700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-37500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-28700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>53500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-43500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>33600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-123900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>156100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>65000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-32600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-153400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>86900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>43700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>AEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,374 +665,386 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45045</v>
+      </c>
+      <c r="E7" s="2">
         <v>44954</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44863</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44772</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44590</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44499</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44317</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44226</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44044</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43953</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43862</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43771</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43680</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43589</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43498</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43407</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43316</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43225</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43134</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43036</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42945</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42854</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42763</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1080900</v>
+      </c>
+      <c r="E8" s="3">
         <v>1496100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1240600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1198100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1055000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1507900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1274100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1194200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1034600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1292300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1031600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>883500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>551700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1314600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1066400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1040900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>886300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1244200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1003700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>964900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>823000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1228700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>960400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>844600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>761800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1097200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>940600</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>667700</v>
+      </c>
+      <c r="E9" s="3">
         <v>988700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>760800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>828100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>667000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1019300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>709600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>691800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>598400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>852400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>616800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>618300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>523400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>906900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>659400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>658300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>561400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>813600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>604200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>611800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>518500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>803600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>585500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>551900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>484000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>708700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>562800</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>413200</v>
+      </c>
+      <c r="E10" s="3">
         <v>507400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>479800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>370000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>388000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>488600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>564500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>502400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>436200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>439900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>414800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>265200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>28300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>407700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>407100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>382600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>324900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>430600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>399500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>353100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>304500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>425100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>374900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>292700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>277800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>388500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>377800</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1062,8 +1074,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1145,8 +1158,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1228,16 +1244,19 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E14" s="3">
         <v>22200</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1245,12 +1264,12 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>11900</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -1258,32 +1277,32 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>102600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>7000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>14600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>155600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>76200</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>2700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1500</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
@@ -1291,111 +1310,117 @@
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>1600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>3700</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>19100</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>5400</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>21200</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AD14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E15" s="3">
         <v>60200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>51100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>48200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>47400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>47100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>40900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>40500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>38300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>41600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>39000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>39100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>42700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>44400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>45000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>44900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>44800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>41200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>42400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>42700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>41900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>43500</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>43100</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>40300</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>40400</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>39400</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1422,174 +1447,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1058100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1422500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1123000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1184100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1013100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1428000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1064400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1026200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>901200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1288700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>936100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>895700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>909900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1314200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>963300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>959000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>838400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1142800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>895100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>888500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>772300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1111400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>849500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>815000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>724900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1011400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>822300</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E18" s="3">
         <v>73600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>117600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>14000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>41900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>79900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>209700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>168000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>133400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>95500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-12200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-358200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>103100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>81900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>47900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>101400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>108600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>76400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>50700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>117300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>110900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>29600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>36900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>85800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1619,174 +1651,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-61600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-12400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-7000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>4300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-13200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>1400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>83400</v>
+      </c>
+      <c r="E21" s="3">
         <v>133500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>165300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>90400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>115700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>246300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>202000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>166100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>41000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>129600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>20700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-318000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>46700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>151200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>131300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>97400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>142500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>158900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>120500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>93700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>164100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>141400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>73000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>78200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>127300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>158900</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1868,174 +1907,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E23" s="3">
         <v>71500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>112900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-47600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>41800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>67500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>204200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>160400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>126800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>89900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-19200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-361400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>105700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>85900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>52000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>103700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>113000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>77300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>51200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>120000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>97700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>32200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>37400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>87300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E24" s="3">
         <v>16900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>31600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-5200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>10000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>17100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>52000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>38900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>31300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-5100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>31700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-5500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-104200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>24900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>20900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11300</v>
-      </c>
-      <c r="T24" s="3">
-        <v>27500</v>
       </c>
       <c r="U24" s="3">
         <v>27500</v>
       </c>
       <c r="V24" s="3">
+        <v>27500</v>
+      </c>
+      <c r="W24" s="3">
         <v>16900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>11300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>38100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>33900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>10900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>12100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>32600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>43100</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2117,174 +2165,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E26" s="3">
         <v>54600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>81300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-42500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>31700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>50400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>152200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>121500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>95500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>58100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-13800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-257200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>80800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>65000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>40800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>76200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>85500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>60300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>39900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>81900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>63700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>21200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>25200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>54600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E27" s="3">
         <v>54600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>81300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-42500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>31700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>50400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>152200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>121500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>95500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>58100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-13800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-257200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>80800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>65000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>40800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>76200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>85500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>60300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>39900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>81900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>63700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>21200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>25200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>54600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2366,8 +2423,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2413,8 +2473,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2431,11 +2491,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
         <v>12100</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2443,14 +2503,17 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB29" s="3">
-        <v>0</v>
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2532,8 +2595,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2615,174 +2681,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E32" s="3">
         <v>2100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>61600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>12400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>7000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-4300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>13200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E33" s="3">
         <v>54600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>81300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-42500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>31700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>50400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>152200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>121500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>95500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>58100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-13800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-257200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>80800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>65000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>40800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>76200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>85500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>60300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>39900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>94000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>63700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>21200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>25200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>54600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2864,179 +2939,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E35" s="3">
         <v>54600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>81300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-42500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>31700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>50400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>152200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>121500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>95500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>58100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-13800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-257200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>80800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>65000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>40800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>76200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>85500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>60300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>39900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>94000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>63700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>21200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>25200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>54600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45045</v>
+      </c>
+      <c r="E38" s="2">
         <v>44954</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44863</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44772</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44590</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44499</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44317</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44226</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44044</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43953</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43862</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43771</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43680</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43589</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43498</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43407</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43316</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43225</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43134</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43036</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42945</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42854</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42763</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3066,8 +3150,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3097,506 +3182,525 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>117500</v>
+      </c>
+      <c r="E41" s="3">
         <v>85000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>82000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>98100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>145200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>138800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>364800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>498200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>466000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>525000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>367000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>404700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>499300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>126100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>134600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>144200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>91900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>108200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>156300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>184300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>209900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>184100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>185500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>162800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>143900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>265300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>209600</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>400</v>
+      </c>
+      <c r="E42" s="3">
         <v>85200</v>
-      </c>
-      <c r="E42" s="3">
-        <v>100</v>
       </c>
       <c r="F42" s="3">
         <v>100</v>
       </c>
       <c r="G42" s="3">
+        <v>100</v>
+      </c>
+      <c r="H42" s="3">
         <v>83600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>296000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>375900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>325800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>325700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>325500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>325300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>494000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>386500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>290800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>129900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>172900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>257800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>317200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>203500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>179000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>99800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>229500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>72000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>29800</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>81300</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>113300</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>259100</v>
+      </c>
+      <c r="E43" s="3">
         <v>242400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>250900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>220800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>230500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>286700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>228500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>155400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>149100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>146100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>124600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>107200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>106800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>119100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>112300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>98600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>73800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>93500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>84100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>74200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>72800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>78300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>77100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>80700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>79400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>86600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>624900</v>
+      </c>
+      <c r="E44" s="3">
         <v>585100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>797700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>687000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>682100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>553500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>739800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>503500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>466700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>405400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>560000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>421200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>421700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>446300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>647300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>534800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>456200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>424400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>591700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>466100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>404300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>398200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>534000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>433500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>364300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>358400</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>492600</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>127700</v>
+      </c>
+      <c r="E45" s="3">
         <v>102600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>146400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>171300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>139200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>122000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>66600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>118700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>88300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>120600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>130900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>155100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>144700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>65700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>54400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>69500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>70900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>102900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>88000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>93500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>87800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>78400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>61600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>110500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>94800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>77500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>77800</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1129500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1100200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1277100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1177400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1280500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1396900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1775500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1601600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1495800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1522600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1507800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1582400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1558900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1047900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1078600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1020100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>950600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1046300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1123500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>997100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>874600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>968500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>930200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>817200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>763700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>901200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>936800</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3678,174 +3782,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1816400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1868500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1938600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1986300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1955300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1921300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1813500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1744600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1758700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1779800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1893700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1930800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1960000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2154000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2250500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2216600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2188900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>742100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>735700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>732400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>732200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>724200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>726200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>719100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>710500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>707800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>708500</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>357300</v>
+      </c>
+      <c r="E49" s="3">
         <v>359500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>367700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>370100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>372100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>374100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>69300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>70600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>69700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>70300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>50900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>51400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>52000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>53000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>55500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>56300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>57200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>58200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>59100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>60000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>60900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>61700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>62000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>62600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>63200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>64300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3927,8 +4040,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4010,91 +4126,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>70700</v>
+      </c>
+      <c r="E52" s="3">
         <v>92700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>89000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>95500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>93600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>94300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>91600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>78200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>76500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>62100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>45900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>63300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>59200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>73700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>67700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>66200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>58600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>56800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>63200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>61300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>63200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>61800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>83400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>87400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>95800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>109400</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4176,91 +4298,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3373900</v>
+      </c>
+      <c r="E54" s="3">
         <v>3421000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3672500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3629200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3701500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3786600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3750000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3495000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3400700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3434800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3498200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3628000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3630100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3328700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3452300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3359200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3255400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1903400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1981500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1850700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1730900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1816300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1801800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1686300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1633200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1782700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1822500</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4290,8 +4418,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4321,91 +4450,95 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>212300</v>
+      </c>
+      <c r="E57" s="3">
         <v>234300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>188400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>198600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>236400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>231800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>314600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>221500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>231900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>255900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>304600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>295300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>177100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>285700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>366700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>317000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>231800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>240700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>343400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>264200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>207800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>236700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>330700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>275500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>208900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>246200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>314100</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4487,216 +4620,225 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>504100</v>
+      </c>
+      <c r="E59" s="3">
         <v>534600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>497000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>519400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>501100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>611100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>555000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>547700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>512600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>602600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>589800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>545100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>485100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>466000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>443500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>446700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>418000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>302000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>263800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>243800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>227000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>248500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>222100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>196500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>211700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>247600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>248800</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>716400</v>
+      </c>
+      <c r="E60" s="3">
         <v>768900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>685400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>718100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>737500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>842900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>869600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>769200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>744500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>858500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>894300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>840400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>662200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>751800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>810200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>763600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>649800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>542600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>607100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>508000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>434800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>485200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>552800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>472000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>420600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>493800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>562900</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E61" s="3">
         <v>8900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>411900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>376500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>405800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>341000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>336200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>331700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>329700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>325300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>321100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>517000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>643000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -4736,91 +4878,97 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1008200</v>
+      </c>
+      <c r="E62" s="3">
         <v>1043900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1112600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1161700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1175200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1179100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1147500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1118600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1150900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1164400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1214600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1272700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1327900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1329100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1381700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1366900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1363800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>73200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>78900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>82200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>88700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>84300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>85700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>90000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>94700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>84300</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>87700</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4902,8 +5050,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4985,8 +5136,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5068,91 +5222,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1754900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1821800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2209900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2256300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2318500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2363000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2353300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2219500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2225100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2348100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2430000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2630100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2633100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2080800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2191900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2130600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2013600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>615800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>686100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>590200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>523500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>569500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>638600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>562000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>515300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>578100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>650600</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5182,8 +5342,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5265,8 +5426,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5348,8 +5512,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5431,8 +5598,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5514,91 +5684,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2130100</v>
+      </c>
+      <c r="E72" s="3">
         <v>2137100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2080900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2000000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2224100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2203800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2185400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2058400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1951500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1868600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1865400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1807700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1826400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2108300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2127300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2070100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2028600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2054700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2002700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1941500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1904200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1883600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1812800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1772200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1774300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1775800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1744200</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5680,8 +5856,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5763,8 +5942,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5846,91 +6028,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1619000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1599200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1462500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1372900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1383000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1423700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1396700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1275500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1175600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1086700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1068200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>997900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>997000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1247900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1260400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1228600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1241800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1287600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1295400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1260600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1207400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1246800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1163200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1124300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1117900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1204600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1172000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6012,179 +6200,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45045</v>
+      </c>
+      <c r="E80" s="2">
         <v>44954</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44863</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44772</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44590</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44499</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44317</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44226</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44044</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43953</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43862</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43771</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43680</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43589</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43498</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43407</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43316</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43225</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43134</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43036</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42945</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42854</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42763</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E81" s="3">
         <v>54600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>81300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-42500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>31700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>50400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>152200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>121500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>95500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>58100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-13800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-257200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>80800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>65000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>40800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>76200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>85500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>60300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>39900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>94000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>63700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>21200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>25200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>54600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6214,91 +6411,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E83" s="3">
         <v>62000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>52400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>49400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>48600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>48200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>42100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>41500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>39300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>42500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>39800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>39900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>43400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>45000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>45600</v>
-      </c>
-      <c r="R83" s="3">
-        <v>45400</v>
       </c>
       <c r="S83" s="3">
         <v>45400</v>
       </c>
       <c r="T83" s="3">
+        <v>45400</v>
+      </c>
+      <c r="U83" s="3">
         <v>38800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>46000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>43300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>42500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>44100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>43700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>40800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>40900</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>40000</v>
       </c>
       <c r="AC83" s="3">
         <v>40000</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6380,8 +6581,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6463,8 +6667,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6546,8 +6753,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6629,8 +6839,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6712,91 +6925,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E89" s="3">
         <v>493000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>18600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-108200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>170000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>11800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>121500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>212900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>26000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>173500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-209900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>237200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>60600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>109900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>7700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>213100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>91200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>124400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>28000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>206300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>134900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>42500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>10700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>162700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>101500</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6826,91 +7045,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-61300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-71700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-69700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-58700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-87700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-58400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-53200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-36800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-35400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-31200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-27500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-33900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-60500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-58100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-55200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-36600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-45100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-42600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-54500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-46900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-34500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-48400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-46400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-40100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-54200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-47300</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6992,8 +7215,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7075,91 +7301,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-61300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-71700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-69700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-58700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-445800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-28200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-112200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-35800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-31300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-65800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-58200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-61200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>10400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-58500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-82600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-74600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-67200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-36600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-48900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-46500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-40100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-54200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-47300</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7189,22 +7421,23 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-19600</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-34400</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-30400</v>
       </c>
       <c r="H96" s="3">
         <v>-30400</v>
@@ -7213,16 +7446,16 @@
         <v>-30400</v>
       </c>
       <c r="J96" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-30300</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-22900</v>
       </c>
       <c r="L96" s="3">
         <v>-22900</v>
       </c>
       <c r="M96" s="3">
-        <v>0</v>
+        <v>-22900</v>
       </c>
       <c r="N96" s="3">
         <v>0</v>
@@ -7231,34 +7464,34 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
-        <v>-23000</v>
+        <v>0</v>
       </c>
       <c r="Q96" s="3">
         <v>-23000</v>
       </c>
       <c r="R96" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-23200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-23600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-25800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-22700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-24400</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-24200</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-22200</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-22100</v>
       </c>
       <c r="Z96" s="3">
         <v>-22100</v>
@@ -7267,13 +7500,16 @@
         <v>-22100</v>
       </c>
       <c r="AB96" s="3">
-        <v>-22700</v>
+        <v>-22100</v>
       </c>
       <c r="AC96" s="3">
         <v>-22700</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>-22700</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7355,8 +7591,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7438,8 +7677,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7521,253 +7763,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-343700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>37900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-63700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-38400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-30400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-36800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-35900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-22100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-20000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-200300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-134400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>714600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-23100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-55400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-86100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-46600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-102400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-49300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-16600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-84300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-13900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-23900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-27300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-123600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-21600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-900</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>400</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>2900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-400</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-100</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-52400</v>
+      </c>
+      <c r="E102" s="3">
         <v>88100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-16100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-130600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-206000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-305900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-33300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>57300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-133800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>158100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-206400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>43000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>493800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>147400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-52700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-37500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-28700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>53500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-43500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>33600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-123900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>156100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>65000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-32600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-153400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>86900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>43700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>AEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,386 +665,399 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E7" s="2">
         <v>45045</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44954</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44863</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44772</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44590</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44499</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44317</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44226</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44044</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43953</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43862</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43771</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43680</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43589</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43498</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43407</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43316</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43225</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43134</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43036</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42945</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42854</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42763</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1200900</v>
+      </c>
+      <c r="E8" s="3">
         <v>1080900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1496100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1240600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1198100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1055000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1507900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1274100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1194200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1034600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1292300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1031600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>883500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>551700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1314600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1066400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1040900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>886300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1244200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1003700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>964900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>823000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1228700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>960400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>844600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>761800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1097200</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>940600</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>747900</v>
+      </c>
+      <c r="E9" s="3">
         <v>667700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>988700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>760800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>828100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>667000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1019300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>709600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>691800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>598400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>852400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>616800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>618300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>523400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>906900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>659400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>658300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>561400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>813600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>604200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>611800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>518500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>803600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>585500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>551900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>484000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>708700</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>562800</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>453000</v>
+      </c>
+      <c r="E10" s="3">
         <v>413200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>507400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>479800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>370000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>388000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>488600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>564500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>502400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>436200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>439900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>414800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>265200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>28300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>407700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>407100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>382600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>324900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>430600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>399500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>353100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>304500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>425100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>374900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>292700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>277800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>388500</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>377800</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1075,8 +1088,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1161,8 +1175,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1247,19 +1264,22 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>21300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>22200</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1267,12 +1287,12 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>11900</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1280,32 +1300,32 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>102600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>7000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>14600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>155600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>76200</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>2700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1500</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
@@ -1313,114 +1333,120 @@
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>1600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>3700</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>19100</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>5400</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>21200</v>
       </c>
-      <c r="AD14" s="3" t="s">
+      <c r="AE14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>55900</v>
+      </c>
+      <c r="E15" s="3">
         <v>56700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>60200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>51100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>48200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>47400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>47100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>40900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>40500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>38300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>41600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>39000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>39100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>42700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>44400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>45000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>44900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>44800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>41200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>42400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>42700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>41900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>43500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>43100</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>40300</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>40400</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>39400</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>39600</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1448,180 +1474,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1135600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1058100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1422500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1123000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1184100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1013100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1428000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1064400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1026200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>901200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1288700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>936100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>895700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>909900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1314200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>963300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>959000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>838400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1142800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>895100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>888500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>772300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1111400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>849500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>815000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>724900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1011400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>822300</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>65300</v>
+      </c>
+      <c r="E18" s="3">
         <v>22800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>73600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>117600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>14000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>41900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>79900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>209700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>168000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>133400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>95500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-12200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-358200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>103100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>81900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>47900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>101400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>108600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>76400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>50700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>117300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>110900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>29600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>36900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>85800</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>118300</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1652,180 +1685,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E20" s="3">
         <v>2600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-61600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-12400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>4300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-13200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>1400</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>123900</v>
+      </c>
+      <c r="E21" s="3">
         <v>83400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>133500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>165300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>90400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>115700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>246300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>202000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>166100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>41000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>129600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>20700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-318000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>46700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>151200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>131300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>97400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>142500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>158900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>120500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>93700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>164100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>141400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>73000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>78200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>127300</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>158900</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1910,180 +1950,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>66500</v>
+      </c>
+      <c r="E23" s="3">
         <v>25500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>71500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>112900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-47600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>41800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>67500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>204200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>160400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>126800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>89900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-19200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-361400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>105700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>85900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>52000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>103700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>113000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>77300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>51200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>120000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>97700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>32200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>37400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>87300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>118900</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E24" s="3">
         <v>7000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>16900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>31600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-5200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>10000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>17100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>52000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>38900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>31300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-5100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>31700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-5500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-104200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-3100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>24900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>20900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>11300</v>
-      </c>
-      <c r="U24" s="3">
-        <v>27500</v>
       </c>
       <c r="V24" s="3">
         <v>27500</v>
       </c>
       <c r="W24" s="3">
+        <v>27500</v>
+      </c>
+      <c r="X24" s="3">
         <v>16900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>11300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>38100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>33900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>10900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>12100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>32600</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>43100</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2168,180 +2217,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E26" s="3">
         <v>18500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>54600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>81300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-42500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>31700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>50400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>152200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>121500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>95500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>58100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-13800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-257200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>80800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>65000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>40800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>76200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>85500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>60300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>39900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>81900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>63700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>21200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>25200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>54600</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E27" s="3">
         <v>18500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>54600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>81300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-42500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>31700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>50400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>152200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>121500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>95500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>58100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-13800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-257200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>80800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>65000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>40800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>76200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>85500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>60300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>39900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>81900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>63700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>21200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>25200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>54600</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2426,8 +2484,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2476,8 +2537,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2494,11 +2555,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>12100</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2506,14 +2567,17 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC29" s="3">
-        <v>0</v>
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2598,8 +2662,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2684,180 +2751,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>61600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>12400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-4300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>13200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-1400</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E33" s="3">
         <v>18500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>54600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>81300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-42500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>31700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>50400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>152200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>121500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>95500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>58100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-13800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-257200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>80800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>65000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>40800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>76200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>85500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>60300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>39900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>94000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>63700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>21200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>25200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>54600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2942,185 +3018,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E35" s="3">
         <v>18500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>54600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>81300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-42500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>31700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>50400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>152200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>121500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>95500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>58100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-13800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-257200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>80800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>65000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>40800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>76200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>85500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>60300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>39900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>94000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>63700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>21200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>25200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>54600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E38" s="2">
         <v>45045</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44954</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44863</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44772</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44590</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44499</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44317</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44226</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44044</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43953</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43862</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43771</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43680</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43589</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43498</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43407</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43316</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43225</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43134</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43036</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42945</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42854</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42763</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3151,8 +3236,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3183,94 +3269,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>174900</v>
+      </c>
+      <c r="E41" s="3">
         <v>117500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>85000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>82000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>98100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>145200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>138800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>364800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>498200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>466000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>525000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>367000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>404700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>499300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>126100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>134600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>144200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>91900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>108200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>156300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>184300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>209900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>184100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>185500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>162800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>143900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>265300</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>209600</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3278,429 +3368,444 @@
         <v>400</v>
       </c>
       <c r="E42" s="3">
+        <v>400</v>
+      </c>
+      <c r="F42" s="3">
         <v>85200</v>
-      </c>
-      <c r="F42" s="3">
-        <v>100</v>
       </c>
       <c r="G42" s="3">
         <v>100</v>
       </c>
       <c r="H42" s="3">
+        <v>100</v>
+      </c>
+      <c r="I42" s="3">
         <v>83600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>296000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>375900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>325800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>325700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>325500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>325300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>494000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>386500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>290800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>129900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>172900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>257800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>317200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>203500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>179000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>99800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>229500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>72000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>29800</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>81300</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>113300</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>82100</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>271300</v>
+      </c>
+      <c r="E43" s="3">
         <v>259100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>242400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>250900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>220800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>230500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>286700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>228500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>155400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>149100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>146100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>124600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>107200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>106800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>119100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>112300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>98600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>73800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>93500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>84100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>74200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>72800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>78300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>77100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>80700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>79400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>86600</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>74800</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>637000</v>
+      </c>
+      <c r="E44" s="3">
         <v>624900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>585100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>797700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>687000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>682100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>553500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>739800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>503500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>466700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>405400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>560000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>421200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>421700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>446300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>647300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>534800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>456200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>424400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>591700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>466100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>404300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>398200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>534000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>433500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>364300</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>358400</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>492600</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>117900</v>
+      </c>
+      <c r="E45" s="3">
         <v>127700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>102600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>146400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>171300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>139200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>122000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>66600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>118700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>88300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>120600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>130900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>155100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>144700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>65700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>54400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>69500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>70900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>102900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>88000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>93500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>87800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>78400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>61600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>110500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>94800</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>77500</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>77800</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1201500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1129500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1100200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1277100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1177400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1280500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1396900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1775500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1601600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1495800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1522600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1507800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1582400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1558900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1047900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1078600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1020100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>950600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1046300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1123500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>997100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>874600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>968500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>930200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>817200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>763700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>901200</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>936800</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3785,180 +3890,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1797200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1816400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1868500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1938600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1986300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1955300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1921300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1813500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1744600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1758700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1779800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1893700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1930800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1960000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2154000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2250500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2216600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2188900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>742100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>735700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>732400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>732200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>724200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>726200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>719100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>710500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>707800</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>708500</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>355300</v>
+      </c>
+      <c r="E49" s="3">
         <v>357300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>359500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>367700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>370100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>372100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>374100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>69300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>70600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>69700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>70300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>50900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>51400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>52000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>53000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>55500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>56300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>57200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>58200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>59100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>60000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>60900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>61700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>62000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>62600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>63200</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>64300</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>67300</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4043,8 +4157,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4129,94 +4246,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>77900</v>
+      </c>
+      <c r="E52" s="3">
         <v>70700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>92700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>89000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>95500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>93600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>94300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>91600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>78200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>76500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>62100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>45900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>63300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>59200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>73700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>67700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>66200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>58600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>56800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>63200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>61300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>63200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>61800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>83400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>87400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>95800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>109400</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4301,94 +4424,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3431900</v>
+      </c>
+      <c r="E54" s="3">
         <v>3373900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3421000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3672500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3629200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3701500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3786600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3750000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3495000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3400700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3434800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3498200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3628000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3630100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3328700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3452300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3359200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3255400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1903400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1981500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1850700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1730900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1816300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1801800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1686300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1633200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1782700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1822500</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4419,8 +4548,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4451,94 +4581,98 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>238700</v>
+      </c>
+      <c r="E57" s="3">
         <v>212300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>234300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>188400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>198600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>236400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>231800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>314600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>221500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>231900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>255900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>304600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>295300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>177100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>285700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>366700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>317000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>231800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>240700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>343400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>264200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>207800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>236700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>330700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>275500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>208900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>246200</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>314100</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4623,225 +4757,234 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>523800</v>
+      </c>
+      <c r="E59" s="3">
         <v>504100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>534600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>497000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>519400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>501100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>611100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>555000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>547700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>512600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>602600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>589800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>545100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>485100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>466000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>443500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>446700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>418000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>302000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>263800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>243800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>227000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>248500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>222100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>196500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>211700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>247600</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>248800</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>762500</v>
+      </c>
+      <c r="E60" s="3">
         <v>716400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>768900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>685400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>718100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>737500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>842900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>869600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>769200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>744500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>858500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>894300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>840400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>662200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>751800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>810200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>763600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>649800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>542600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>607100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>508000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>434800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>485200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>552800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>472000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>420600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>493800</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>562900</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E61" s="3">
         <v>30200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>411900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>376500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>405800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>341000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>336200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>331700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>329700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>325300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>321100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>517000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>643000</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -4881,94 +5024,100 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>993200</v>
+      </c>
+      <c r="E62" s="3">
         <v>1008200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1043900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1112600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1161700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1175200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1179100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1147500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1118600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1150900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1164400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1214600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1272700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1327900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1329100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1381700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1366900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1363800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>73200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>78900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>82200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>88700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>84300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>85700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>90000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>94700</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>84300</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>87700</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5053,8 +5202,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5139,8 +5291,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5225,94 +5380,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1758900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1754900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1821800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2209900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2256300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2318500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2363000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2353300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2219500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2225100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2348100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2430000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2630100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2633100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2080800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2191900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2130600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2013600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>615800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>686100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>590200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>523500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>569500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>638600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>562000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>515300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>578100</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>650600</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5343,8 +5504,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5429,8 +5591,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5515,8 +5680,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5601,8 +5769,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5687,94 +5858,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2158300</v>
+      </c>
+      <c r="E72" s="3">
         <v>2130100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2137100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2080900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2000000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2224100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2203800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2185400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2058400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1951500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1868600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1865400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1807700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1826400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2108300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2127300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2070100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2028600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2054700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2002700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1941500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1904200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1883600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1812800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1772200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1774300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1775800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1744200</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5859,8 +6036,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5945,8 +6125,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6031,94 +6214,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1673000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1619000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1599200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1462500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1372900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1383000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1423700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1396700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1275500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1175600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1086700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1068200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>997900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>997000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1247900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1260400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1228600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1241800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1287600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1295400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1260600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1207400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1246800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1163200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1124300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1117900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1204600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1172000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6203,185 +6392,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E80" s="2">
         <v>45045</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44954</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44863</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44772</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44590</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44499</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44317</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44226</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44044</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43953</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43862</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43771</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43680</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43589</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43498</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43407</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43316</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43225</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43134</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43036</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42945</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42854</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42763</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E81" s="3">
         <v>18500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>54600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>81300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-42500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>31700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>50400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>152200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>121500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>95500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>58100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-13800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-257200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>80800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>65000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>40800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>76200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>85500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>60300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>39900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>94000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>63700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>21200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>25200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>54600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>75800</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6412,94 +6610,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>57400</v>
+      </c>
+      <c r="E83" s="3">
         <v>57900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>62000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>52400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>49400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>48600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>48200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>42100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>41500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>39300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>42500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>39800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>39900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>43400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>45000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>45600</v>
-      </c>
-      <c r="S83" s="3">
-        <v>45400</v>
       </c>
       <c r="T83" s="3">
         <v>45400</v>
       </c>
       <c r="U83" s="3">
+        <v>45400</v>
+      </c>
+      <c r="V83" s="3">
         <v>38800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>46000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>43300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>42500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>44100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>43700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>40800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>40900</v>
-      </c>
-      <c r="AC83" s="3">
-        <v>40000</v>
       </c>
       <c r="AD83" s="3">
         <v>40000</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6584,8 +6786,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6670,8 +6875,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6756,8 +6964,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6842,8 +7053,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6928,94 +7142,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>156100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>493000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>18600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-108200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>170000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>11800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>121500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>212900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>26000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>173500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-209900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>237200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>60600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>109900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>7700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>213100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>91200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>124400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>28000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>206300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>134900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>42500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>10700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>162700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>101500</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7046,94 +7266,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-52400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-46000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-61300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-71700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-69700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-58700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-87700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-58400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-53200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-36800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-35400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-31200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-27500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-33900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-60500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-58100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-55200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-36600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-45100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-42600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-54500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-46900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-34500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-48400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-46400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-40100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-54200</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-47300</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7218,8 +7442,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7304,94 +7531,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-52400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-46000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-61300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-71700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-69700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-58700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-445800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-28200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-112200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-35800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-31300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-65800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-58200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-61200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>10400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-58500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-82600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-74600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-67200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-36600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-48900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-46500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-40100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-54200</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-47300</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7422,25 +7655,26 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-19600</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-34400</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-30400</v>
       </c>
       <c r="I96" s="3">
         <v>-30400</v>
@@ -7449,16 +7683,16 @@
         <v>-30400</v>
       </c>
       <c r="K96" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="L96" s="3">
         <v>-30300</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-22900</v>
       </c>
       <c r="M96" s="3">
         <v>-22900</v>
       </c>
       <c r="N96" s="3">
-        <v>0</v>
+        <v>-22900</v>
       </c>
       <c r="O96" s="3">
         <v>0</v>
@@ -7467,34 +7701,34 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
-        <v>-23000</v>
+        <v>0</v>
       </c>
       <c r="R96" s="3">
         <v>-23000</v>
       </c>
       <c r="S96" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-23200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-23600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-25800</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-22700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-24400</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-24200</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-22200</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-22100</v>
       </c>
       <c r="AA96" s="3">
         <v>-22100</v>
@@ -7503,13 +7737,16 @@
         <v>-22100</v>
       </c>
       <c r="AC96" s="3">
-        <v>-22700</v>
+        <v>-22100</v>
       </c>
       <c r="AD96" s="3">
         <v>-22700</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>-22700</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7594,8 +7831,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7680,8 +7920,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7766,262 +8009,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-48300</v>
+      </c>
+      <c r="E100" s="3">
         <v>1900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-343700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>37900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-63700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-38400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-30400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-36800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-35900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-22100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-20000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-200300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-134400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>714600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-23100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-55400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-86100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-46600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-102400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-49300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-16600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-84300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-13900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-23900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-27300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-123600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-21600</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-900</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>400</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>2900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-400</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-100</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>57500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-52400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>88100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-16100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-130600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-206000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-305900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-33300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>57300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-133800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>158100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-206400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>43000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>493800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>147400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-52700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-37500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-28700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>53500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-43500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>33600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-123900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>156100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>65000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-32600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-153400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>86900</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>43700</v>
       </c>
     </row>
